--- a/semester A/ergsthrio excel/assignments_7_Koutsompinas.xlsx
+++ b/semester A/ergsthrio excel/assignments_7_Koutsompinas.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\ergsthrio excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303BC8F-B030-4DC8-B98E-799365F81D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D6CA35-DBB5-4F1B-A0B0-D6B402F43B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vlookup" sheetId="1" r:id="rId1"/>
     <sheet name="index &amp; match" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="B">'index &amp; match'!$B$4:$F$17</definedName>
+    <definedName name="Data" localSheetId="1">'index &amp; match'!$B$4:$B$17</definedName>
     <definedName name="Data">vlookup!$B$3:$E$16</definedName>
     <definedName name="DataI">'index &amp; match'!$B$3:$F$17</definedName>
+    <definedName name="Net_Sales">'index &amp; match'!$D$5:$D$17</definedName>
+    <definedName name="No._Customers">'index &amp; match'!$C$5:$C$17</definedName>
+    <definedName name="Profit___Loss">'index &amp; match'!$E$5:$E$17</definedName>
+    <definedName name="Profit_Ratio">'index &amp; match'!$F$5:$F$17</definedName>
     <definedName name="rngOffset">OFFSET(INDIRECT(valRef),valRows,valCols,valHt,valW)</definedName>
+    <definedName name="Sales_Person">'index &amp; match'!$B$5:$B$17</definedName>
     <definedName name="tblData">'index &amp; match'!$B$5:$E$17</definedName>
     <definedName name="valCols">#REF!</definedName>
     <definedName name="valHt">#REF!</definedName>
@@ -80,8 +87,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Data</t>
   </si>
@@ -246,6 +275,72 @@
   </si>
   <si>
     <t>(MAX($D$5:$D$17)/INDEX($C$4:$F$17,MATCH(MAX($D$5:$D$17),$D$4:$D$17,0),1))-(MIN($D$5:$D$17)/INDEX($C$4:$F$17,MATCH(MIN($D$5:$D$17),$D$4:$D$17,0),1))</t>
+  </si>
+  <si>
+    <t>2os tropos gia profit ratio :</t>
+  </si>
+  <si>
+    <t>RANK.EQ(INDEX(Profit_Ratio,MATCH(LARGE(Net_Sales,2),Net_Sales,0)),Profit_Ratio,0)</t>
+  </si>
+  <si>
+    <t>C 1</t>
+  </si>
+  <si>
+    <t>C 2</t>
+  </si>
+  <si>
+    <t>C 3</t>
+  </si>
+  <si>
+    <t>C 4</t>
+  </si>
+  <si>
+    <t>C 5</t>
+  </si>
+  <si>
+    <t>C 6</t>
+  </si>
+  <si>
+    <t>C 7</t>
+  </si>
+  <si>
+    <t>C 8</t>
+  </si>
+  <si>
+    <t>C 9</t>
+  </si>
+  <si>
+    <t>C 10</t>
+  </si>
+  <si>
+    <t>C 11</t>
+  </si>
+  <si>
+    <t>C 12</t>
+  </si>
+  <si>
+    <t>C 13</t>
+  </si>
+  <si>
+    <t>C 14</t>
+  </si>
+  <si>
+    <t>C 15</t>
+  </si>
+  <si>
+    <t>C 16</t>
+  </si>
+  <si>
+    <t>C 17</t>
+  </si>
+  <si>
+    <t>C 18</t>
+  </si>
+  <si>
+    <t>C 19</t>
+  </si>
+  <si>
+    <t>C 20</t>
   </si>
 </sst>
 </file>
@@ -256,7 +351,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +434,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -792,7 +893,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,6 +1105,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1717,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2643,7 +2747,10 @@
         <f t="shared" si="0"/>
         <v>0.3826</v>
       </c>
-      <c r="J13"/>
+      <c r="I13" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
@@ -2662,7 +2769,13 @@
         <f t="shared" si="0"/>
         <v>0.32490000000000002</v>
       </c>
-      <c r="J14"/>
+      <c r="I14" s="24">
+        <f>_xlfn.RANK.EQ(INDEX(Profit_Ratio,MATCH(LARGE(Net_Sales,2),Net_Sales,0)),Profit_Ratio,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
@@ -2725,13 +2838,430 @@
       <c r="J18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7C1034-24D4-4CFC-9995-287C11571150}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1">
+        <f ca="1">RAND()</f>
+        <v>0.33208096663326658</v>
+      </c>
+      <c r="C1">
+        <v>1.7358250064721248E-2</v>
+      </c>
+      <c r="E1">
+        <f>_xlfn.RANK.EQ(C1,$C$1:$C$20,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G1" t="str" cm="1">
+        <f t="array" ref="G1">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C1,$C$1:$C$20))</f>
+        <v>C 20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B20" ca="1" si="0">RAND()</f>
+        <v>0.25216283775690507</v>
+      </c>
+      <c r="C2">
+        <v>0.74969964056672211</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E20" si="1">_xlfn.RANK.EQ(C2,$C$1:$C$20,1)</f>
+        <v>17</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C2,$C$1:$C$20))</f>
+        <v>C 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1499801345502054E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.72206927717270286</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C3,$C$1:$C$20))</f>
+        <v>C 7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78494959631393857</v>
+      </c>
+      <c r="C4">
+        <v>0.82998405521556862</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G4" t="str" cm="1">
+        <f t="array" ref="G4">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C4,$C$1:$C$20))</f>
+        <v>C 3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73282492636975716</v>
+      </c>
+      <c r="C5">
+        <v>0.72682987064939897</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C5,$C$1:$C$20))</f>
+        <v>C 6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71030527216507655</v>
+      </c>
+      <c r="C6">
+        <v>0.14789102203167404</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" ref="G6">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C6,$C$1:$C$20))</f>
+        <v>C 16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91866045545282593</v>
+      </c>
+      <c r="C7">
+        <v>0.59700777201374011</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G7" t="str" cm="1">
+        <f t="array" ref="G7">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C7,$C$1:$C$20))</f>
+        <v>C 10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58906379693259225</v>
+      </c>
+      <c r="C8">
+        <v>0.24873120679826954</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="str" cm="1">
+        <f t="array" ref="G8">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C8,$C$1:$C$20))</f>
+        <v>C 14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12477181568115447</v>
+      </c>
+      <c r="C9">
+        <v>0.7063840658469881</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G9" t="str" cm="1">
+        <f t="array" ref="G9">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C9,$C$1:$C$20))</f>
+        <v>C 8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14090424873085372</v>
+      </c>
+      <c r="C10">
+        <v>0.14560151346575556</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G10" t="str" cm="1">
+        <f t="array" ref="G10">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C10,$C$1:$C$20))</f>
+        <v>C 17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4687710799756315</v>
+      </c>
+      <c r="C11">
+        <v>0.9789850569307641</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G11" t="str" cm="1">
+        <f t="array" ref="G11">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C11,$C$1:$C$20))</f>
+        <v>C 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99223715379295463</v>
+      </c>
+      <c r="C12">
+        <v>0.74723199313517696</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G12" t="str" cm="1">
+        <f t="array" ref="G12">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C12,$C$1:$C$20))</f>
+        <v>C 5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73052740967361074</v>
+      </c>
+      <c r="C13">
+        <v>0.68398882994498045</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str" cm="1">
+        <f t="array" ref="G13">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C13,$C$1:$C$20))</f>
+        <v>C 9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10575663162503102</v>
+      </c>
+      <c r="C14">
+        <v>0.48822837171252487</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C14,$C$1:$C$20))</f>
+        <v>C 12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40184916924468694</v>
+      </c>
+      <c r="C15">
+        <v>0.1581878974130595</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" ref="G15">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C15,$C$1:$C$20))</f>
+        <v>C 15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91763180202199179</v>
+      </c>
+      <c r="C16">
+        <v>4.2357791052325622E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" ref="G16">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C16,$C$1:$C$20))</f>
+        <v>C 19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3805367414338066E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.10499598663099363</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" ref="G17">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C17,$C$1:$C$20))</f>
+        <v>C 18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9329485496037655</v>
+      </c>
+      <c r="C18">
+        <v>0.89196975572205894</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G18" t="str" cm="1">
+        <f t="array" ref="G18">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C18,$C$1:$C$20))</f>
+        <v>C 2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87488406381058481</v>
+      </c>
+      <c r="C19">
+        <v>0.5370829309082723</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G19" t="str" cm="1">
+        <f t="array" ref="G19">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C19,$C$1:$C$20))</f>
+        <v>C 11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89859642563695508</v>
+      </c>
+      <c r="C20">
+        <v>0.3754683647721907</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G20" t="str" cm="1">
+        <f t="array" ref="G20">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C20,$C$1:$C$20))</f>
+        <v>C 13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/semester A/ergsthrio excel/assignments_7_Koutsompinas.xlsx
+++ b/semester A/ergsthrio excel/assignments_7_Koutsompinas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\ergsthrio excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366DA404-1BDA-4D5A-BA3A-2831E061A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vlookup" sheetId="1" r:id="rId1"/>
@@ -48,19 +54,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Purna Duggirala</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
+            <charset val="161"/>
           </rPr>
           <t>Purna Duggirala:</t>
         </r>
@@ -68,7 +75,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
+            <charset val="161"/>
           </rPr>
           <t xml:space="preserve">
 Calculated</t>
@@ -80,7 +88,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -338,15 +346,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,36 +363,41 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Segoe UI Light"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,14 +405,8 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,165 +414,41 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,197 +488,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -821,14 +515,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,22 +530,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -863,20 +557,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,19 +578,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top/>
       <bottom/>
@@ -908,10 +602,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,7 +617,7 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -950,14 +644,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,23 +659,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,7 +714,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,7 +725,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +737,10 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,7 +777,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,7 +788,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,7 +801,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,10 +811,10 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,7 +824,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1145,7 +839,7 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1156,7 +850,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1169,7 +863,7 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.0499893185216834"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1191,251 +885,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1452,23 +913,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,10 +935,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,10 +950,10 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,42 +977,27 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,17 +1022,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1601,7 +1041,7 @@
     <xf numFmtId="17" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,7 +1050,7 @@
     <xf numFmtId="17" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1619,10 +1059,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1636,108 +1076,70 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Υπερ-σύνδεση 2" xfId="49"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Υπερ-σύνδεση 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0000863D"/>
+      <color rgb="FF00863D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1753,13 +1155,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="http://chandoo.org/wp/wp-content/uploads/2008/11/difference-between-vlookup-match-excel-formulas.png"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="http://chandoo.org/wp/wp-content/uploads/2008/11/difference-between-vlookup-match-excel-formulas.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2062,1245 +1470,1242 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="2.44444444444444" customWidth="1"/>
-    <col min="7" max="7" width="41.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="44.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="2:2">
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="2:9" ht="18.75">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="2:9">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>8</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>1592</v>
       </c>
-      <c r="E4" s="56">
-        <v>562.772</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="E4" s="49">
+        <v>562.77200000000005</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="50">
         <f>VLOOKUP("John",Data,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>8</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>1088</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="52">
         <v>396.9024</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="53">
         <f>VLOOKUP("Jamie",Data,3,FALSE)</f>
         <v>2133</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>8</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>1680</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="49">
         <v>752.64</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="50">
         <f>VLOOKUP("Jessy",Data,4,FALSE)</f>
-        <v>235.8774</v>
-      </c>
-      <c r="I6" s="57" t="s">
+        <v>235.87739999999999</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>9</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>2133</v>
       </c>
-      <c r="E7" s="59">
-        <v>922.7358</v>
-      </c>
-      <c r="G7" s="61" t="s">
+      <c r="E7" s="52">
+        <v>922.73580000000004</v>
+      </c>
+      <c r="G7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="57" t="e">
+      <c r="H7" s="50" t="e">
         <f>VLOOKUP("Joshua",Data,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>1610</v>
       </c>
-      <c r="E8" s="56">
-        <v>579.117</v>
-      </c>
-      <c r="G8" s="55" t="s">
+      <c r="E8" s="49">
+        <v>579.11699999999996</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="50">
         <f>VLOOKUP(G17,Data,3,FALSE)</f>
         <v>1316</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>1540</v>
       </c>
-      <c r="E9" s="59">
-        <v>569.8</v>
-      </c>
-      <c r="G9" s="58" t="s">
+      <c r="E9" s="52">
+        <v>569.79999999999995</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="60" t="str">
+      <c r="H9" s="53" t="str">
         <f>IF(VLOOKUP("jamie",Data,3,FALSE)&gt;VLOOKUP("jackie",Data,3,FALSE),"jamie","jackie")</f>
         <v>jamie</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>7</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>1316</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <v>427.5684</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <f>VLOOKUP("Jagjit",Data,3,FALSE)/VLOOKUP("Jagjit",Data,2,FALSE)</f>
         <v>257</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="66" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>7</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>1799</v>
       </c>
-      <c r="E11" s="59">
-        <v>708.806</v>
-      </c>
-      <c r="G11" s="61" t="s">
+      <c r="E11" s="52">
+        <v>708.80600000000004</v>
+      </c>
+      <c r="G11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="55">
         <f>VLOOKUP($G$17,Data,4,FALSE)/VLOOKUP($G$17,Data,3,FALSE)</f>
-        <v>0.3249</v>
-      </c>
-      <c r="I11" s="79" t="s">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="I11" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>1624</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="49">
         <v>621.3424</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>6</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>726</v>
       </c>
-      <c r="E13" s="59">
-        <v>235.8774</v>
+      <c r="E13" s="52">
+        <v>235.87739999999999</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>9</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>2277</v>
       </c>
-      <c r="E14" s="56">
-        <v>965.6757</v>
+      <c r="E14" s="49">
+        <v>965.67570000000001</v>
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>6</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>714</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="52">
         <v>220.983</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="63" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="57">
         <v>9</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="58">
         <v>2682</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="59">
         <v>1023.183</v>
       </c>
     </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="67" t="s">
+    <row r="17" spans="2:7">
+      <c r="G17" s="60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
+    <row r="23" spans="2:7">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.8888888888889" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="6" width="12.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="2.44444444444444" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
     <col min="8" max="8" width="84" customWidth="1"/>
-    <col min="9" max="9" width="8.22222222222222" style="3" customWidth="1"/>
-    <col min="10" max="10" width="116.444444444444" style="2" customWidth="1"/>
-    <col min="257" max="257" width="4.33333333333333" customWidth="1"/>
-    <col min="258" max="258" width="16.8888888888889" customWidth="1"/>
-    <col min="259" max="259" width="14.1111111111111" customWidth="1"/>
-    <col min="260" max="260" width="10.6666666666667" customWidth="1"/>
-    <col min="261" max="262" width="12.8888888888889" customWidth="1"/>
-    <col min="263" max="263" width="2.44444444444444" customWidth="1"/>
-    <col min="264" max="264" width="39.8888888888889" customWidth="1"/>
-    <col min="265" max="265" width="12.3333333333333" customWidth="1"/>
-    <col min="266" max="266" width="46.4444444444444" customWidth="1"/>
-    <col min="513" max="513" width="4.33333333333333" customWidth="1"/>
-    <col min="514" max="514" width="16.8888888888889" customWidth="1"/>
-    <col min="515" max="515" width="14.1111111111111" customWidth="1"/>
-    <col min="516" max="516" width="10.6666666666667" customWidth="1"/>
-    <col min="517" max="518" width="12.8888888888889" customWidth="1"/>
-    <col min="519" max="519" width="2.44444444444444" customWidth="1"/>
-    <col min="520" max="520" width="39.8888888888889" customWidth="1"/>
-    <col min="521" max="521" width="12.3333333333333" customWidth="1"/>
-    <col min="522" max="522" width="46.4444444444444" customWidth="1"/>
-    <col min="769" max="769" width="4.33333333333333" customWidth="1"/>
-    <col min="770" max="770" width="16.8888888888889" customWidth="1"/>
-    <col min="771" max="771" width="14.1111111111111" customWidth="1"/>
-    <col min="772" max="772" width="10.6666666666667" customWidth="1"/>
-    <col min="773" max="774" width="12.8888888888889" customWidth="1"/>
-    <col min="775" max="775" width="2.44444444444444" customWidth="1"/>
-    <col min="776" max="776" width="39.8888888888889" customWidth="1"/>
-    <col min="777" max="777" width="12.3333333333333" customWidth="1"/>
-    <col min="778" max="778" width="46.4444444444444" customWidth="1"/>
-    <col min="1025" max="1025" width="4.33333333333333" customWidth="1"/>
-    <col min="1026" max="1026" width="16.8888888888889" customWidth="1"/>
-    <col min="1027" max="1027" width="14.1111111111111" customWidth="1"/>
-    <col min="1028" max="1028" width="10.6666666666667" customWidth="1"/>
-    <col min="1029" max="1030" width="12.8888888888889" customWidth="1"/>
-    <col min="1031" max="1031" width="2.44444444444444" customWidth="1"/>
-    <col min="1032" max="1032" width="39.8888888888889" customWidth="1"/>
-    <col min="1033" max="1033" width="12.3333333333333" customWidth="1"/>
-    <col min="1034" max="1034" width="46.4444444444444" customWidth="1"/>
-    <col min="1281" max="1281" width="4.33333333333333" customWidth="1"/>
-    <col min="1282" max="1282" width="16.8888888888889" customWidth="1"/>
-    <col min="1283" max="1283" width="14.1111111111111" customWidth="1"/>
-    <col min="1284" max="1284" width="10.6666666666667" customWidth="1"/>
-    <col min="1285" max="1286" width="12.8888888888889" customWidth="1"/>
-    <col min="1287" max="1287" width="2.44444444444444" customWidth="1"/>
-    <col min="1288" max="1288" width="39.8888888888889" customWidth="1"/>
-    <col min="1289" max="1289" width="12.3333333333333" customWidth="1"/>
-    <col min="1290" max="1290" width="46.4444444444444" customWidth="1"/>
-    <col min="1537" max="1537" width="4.33333333333333" customWidth="1"/>
-    <col min="1538" max="1538" width="16.8888888888889" customWidth="1"/>
-    <col min="1539" max="1539" width="14.1111111111111" customWidth="1"/>
-    <col min="1540" max="1540" width="10.6666666666667" customWidth="1"/>
-    <col min="1541" max="1542" width="12.8888888888889" customWidth="1"/>
-    <col min="1543" max="1543" width="2.44444444444444" customWidth="1"/>
-    <col min="1544" max="1544" width="39.8888888888889" customWidth="1"/>
-    <col min="1545" max="1545" width="12.3333333333333" customWidth="1"/>
-    <col min="1546" max="1546" width="46.4444444444444" customWidth="1"/>
-    <col min="1793" max="1793" width="4.33333333333333" customWidth="1"/>
-    <col min="1794" max="1794" width="16.8888888888889" customWidth="1"/>
-    <col min="1795" max="1795" width="14.1111111111111" customWidth="1"/>
-    <col min="1796" max="1796" width="10.6666666666667" customWidth="1"/>
-    <col min="1797" max="1798" width="12.8888888888889" customWidth="1"/>
-    <col min="1799" max="1799" width="2.44444444444444" customWidth="1"/>
-    <col min="1800" max="1800" width="39.8888888888889" customWidth="1"/>
-    <col min="1801" max="1801" width="12.3333333333333" customWidth="1"/>
-    <col min="1802" max="1802" width="46.4444444444444" customWidth="1"/>
-    <col min="2049" max="2049" width="4.33333333333333" customWidth="1"/>
-    <col min="2050" max="2050" width="16.8888888888889" customWidth="1"/>
-    <col min="2051" max="2051" width="14.1111111111111" customWidth="1"/>
-    <col min="2052" max="2052" width="10.6666666666667" customWidth="1"/>
-    <col min="2053" max="2054" width="12.8888888888889" customWidth="1"/>
-    <col min="2055" max="2055" width="2.44444444444444" customWidth="1"/>
-    <col min="2056" max="2056" width="39.8888888888889" customWidth="1"/>
-    <col min="2057" max="2057" width="12.3333333333333" customWidth="1"/>
-    <col min="2058" max="2058" width="46.4444444444444" customWidth="1"/>
-    <col min="2305" max="2305" width="4.33333333333333" customWidth="1"/>
-    <col min="2306" max="2306" width="16.8888888888889" customWidth="1"/>
-    <col min="2307" max="2307" width="14.1111111111111" customWidth="1"/>
-    <col min="2308" max="2308" width="10.6666666666667" customWidth="1"/>
-    <col min="2309" max="2310" width="12.8888888888889" customWidth="1"/>
-    <col min="2311" max="2311" width="2.44444444444444" customWidth="1"/>
-    <col min="2312" max="2312" width="39.8888888888889" customWidth="1"/>
-    <col min="2313" max="2313" width="12.3333333333333" customWidth="1"/>
-    <col min="2314" max="2314" width="46.4444444444444" customWidth="1"/>
-    <col min="2561" max="2561" width="4.33333333333333" customWidth="1"/>
-    <col min="2562" max="2562" width="16.8888888888889" customWidth="1"/>
-    <col min="2563" max="2563" width="14.1111111111111" customWidth="1"/>
-    <col min="2564" max="2564" width="10.6666666666667" customWidth="1"/>
-    <col min="2565" max="2566" width="12.8888888888889" customWidth="1"/>
-    <col min="2567" max="2567" width="2.44444444444444" customWidth="1"/>
-    <col min="2568" max="2568" width="39.8888888888889" customWidth="1"/>
-    <col min="2569" max="2569" width="12.3333333333333" customWidth="1"/>
-    <col min="2570" max="2570" width="46.4444444444444" customWidth="1"/>
-    <col min="2817" max="2817" width="4.33333333333333" customWidth="1"/>
-    <col min="2818" max="2818" width="16.8888888888889" customWidth="1"/>
-    <col min="2819" max="2819" width="14.1111111111111" customWidth="1"/>
-    <col min="2820" max="2820" width="10.6666666666667" customWidth="1"/>
-    <col min="2821" max="2822" width="12.8888888888889" customWidth="1"/>
-    <col min="2823" max="2823" width="2.44444444444444" customWidth="1"/>
-    <col min="2824" max="2824" width="39.8888888888889" customWidth="1"/>
-    <col min="2825" max="2825" width="12.3333333333333" customWidth="1"/>
-    <col min="2826" max="2826" width="46.4444444444444" customWidth="1"/>
-    <col min="3073" max="3073" width="4.33333333333333" customWidth="1"/>
-    <col min="3074" max="3074" width="16.8888888888889" customWidth="1"/>
-    <col min="3075" max="3075" width="14.1111111111111" customWidth="1"/>
-    <col min="3076" max="3076" width="10.6666666666667" customWidth="1"/>
-    <col min="3077" max="3078" width="12.8888888888889" customWidth="1"/>
-    <col min="3079" max="3079" width="2.44444444444444" customWidth="1"/>
-    <col min="3080" max="3080" width="39.8888888888889" customWidth="1"/>
-    <col min="3081" max="3081" width="12.3333333333333" customWidth="1"/>
-    <col min="3082" max="3082" width="46.4444444444444" customWidth="1"/>
-    <col min="3329" max="3329" width="4.33333333333333" customWidth="1"/>
-    <col min="3330" max="3330" width="16.8888888888889" customWidth="1"/>
-    <col min="3331" max="3331" width="14.1111111111111" customWidth="1"/>
-    <col min="3332" max="3332" width="10.6666666666667" customWidth="1"/>
-    <col min="3333" max="3334" width="12.8888888888889" customWidth="1"/>
-    <col min="3335" max="3335" width="2.44444444444444" customWidth="1"/>
-    <col min="3336" max="3336" width="39.8888888888889" customWidth="1"/>
-    <col min="3337" max="3337" width="12.3333333333333" customWidth="1"/>
-    <col min="3338" max="3338" width="46.4444444444444" customWidth="1"/>
-    <col min="3585" max="3585" width="4.33333333333333" customWidth="1"/>
-    <col min="3586" max="3586" width="16.8888888888889" customWidth="1"/>
-    <col min="3587" max="3587" width="14.1111111111111" customWidth="1"/>
-    <col min="3588" max="3588" width="10.6666666666667" customWidth="1"/>
-    <col min="3589" max="3590" width="12.8888888888889" customWidth="1"/>
-    <col min="3591" max="3591" width="2.44444444444444" customWidth="1"/>
-    <col min="3592" max="3592" width="39.8888888888889" customWidth="1"/>
-    <col min="3593" max="3593" width="12.3333333333333" customWidth="1"/>
-    <col min="3594" max="3594" width="46.4444444444444" customWidth="1"/>
-    <col min="3841" max="3841" width="4.33333333333333" customWidth="1"/>
-    <col min="3842" max="3842" width="16.8888888888889" customWidth="1"/>
-    <col min="3843" max="3843" width="14.1111111111111" customWidth="1"/>
-    <col min="3844" max="3844" width="10.6666666666667" customWidth="1"/>
-    <col min="3845" max="3846" width="12.8888888888889" customWidth="1"/>
-    <col min="3847" max="3847" width="2.44444444444444" customWidth="1"/>
-    <col min="3848" max="3848" width="39.8888888888889" customWidth="1"/>
-    <col min="3849" max="3849" width="12.3333333333333" customWidth="1"/>
-    <col min="3850" max="3850" width="46.4444444444444" customWidth="1"/>
-    <col min="4097" max="4097" width="4.33333333333333" customWidth="1"/>
-    <col min="4098" max="4098" width="16.8888888888889" customWidth="1"/>
-    <col min="4099" max="4099" width="14.1111111111111" customWidth="1"/>
-    <col min="4100" max="4100" width="10.6666666666667" customWidth="1"/>
-    <col min="4101" max="4102" width="12.8888888888889" customWidth="1"/>
-    <col min="4103" max="4103" width="2.44444444444444" customWidth="1"/>
-    <col min="4104" max="4104" width="39.8888888888889" customWidth="1"/>
-    <col min="4105" max="4105" width="12.3333333333333" customWidth="1"/>
-    <col min="4106" max="4106" width="46.4444444444444" customWidth="1"/>
-    <col min="4353" max="4353" width="4.33333333333333" customWidth="1"/>
-    <col min="4354" max="4354" width="16.8888888888889" customWidth="1"/>
-    <col min="4355" max="4355" width="14.1111111111111" customWidth="1"/>
-    <col min="4356" max="4356" width="10.6666666666667" customWidth="1"/>
-    <col min="4357" max="4358" width="12.8888888888889" customWidth="1"/>
-    <col min="4359" max="4359" width="2.44444444444444" customWidth="1"/>
-    <col min="4360" max="4360" width="39.8888888888889" customWidth="1"/>
-    <col min="4361" max="4361" width="12.3333333333333" customWidth="1"/>
-    <col min="4362" max="4362" width="46.4444444444444" customWidth="1"/>
-    <col min="4609" max="4609" width="4.33333333333333" customWidth="1"/>
-    <col min="4610" max="4610" width="16.8888888888889" customWidth="1"/>
-    <col min="4611" max="4611" width="14.1111111111111" customWidth="1"/>
-    <col min="4612" max="4612" width="10.6666666666667" customWidth="1"/>
-    <col min="4613" max="4614" width="12.8888888888889" customWidth="1"/>
-    <col min="4615" max="4615" width="2.44444444444444" customWidth="1"/>
-    <col min="4616" max="4616" width="39.8888888888889" customWidth="1"/>
-    <col min="4617" max="4617" width="12.3333333333333" customWidth="1"/>
-    <col min="4618" max="4618" width="46.4444444444444" customWidth="1"/>
-    <col min="4865" max="4865" width="4.33333333333333" customWidth="1"/>
-    <col min="4866" max="4866" width="16.8888888888889" customWidth="1"/>
-    <col min="4867" max="4867" width="14.1111111111111" customWidth="1"/>
-    <col min="4868" max="4868" width="10.6666666666667" customWidth="1"/>
-    <col min="4869" max="4870" width="12.8888888888889" customWidth="1"/>
-    <col min="4871" max="4871" width="2.44444444444444" customWidth="1"/>
-    <col min="4872" max="4872" width="39.8888888888889" customWidth="1"/>
-    <col min="4873" max="4873" width="12.3333333333333" customWidth="1"/>
-    <col min="4874" max="4874" width="46.4444444444444" customWidth="1"/>
-    <col min="5121" max="5121" width="4.33333333333333" customWidth="1"/>
-    <col min="5122" max="5122" width="16.8888888888889" customWidth="1"/>
-    <col min="5123" max="5123" width="14.1111111111111" customWidth="1"/>
-    <col min="5124" max="5124" width="10.6666666666667" customWidth="1"/>
-    <col min="5125" max="5126" width="12.8888888888889" customWidth="1"/>
-    <col min="5127" max="5127" width="2.44444444444444" customWidth="1"/>
-    <col min="5128" max="5128" width="39.8888888888889" customWidth="1"/>
-    <col min="5129" max="5129" width="12.3333333333333" customWidth="1"/>
-    <col min="5130" max="5130" width="46.4444444444444" customWidth="1"/>
-    <col min="5377" max="5377" width="4.33333333333333" customWidth="1"/>
-    <col min="5378" max="5378" width="16.8888888888889" customWidth="1"/>
-    <col min="5379" max="5379" width="14.1111111111111" customWidth="1"/>
-    <col min="5380" max="5380" width="10.6666666666667" customWidth="1"/>
-    <col min="5381" max="5382" width="12.8888888888889" customWidth="1"/>
-    <col min="5383" max="5383" width="2.44444444444444" customWidth="1"/>
-    <col min="5384" max="5384" width="39.8888888888889" customWidth="1"/>
-    <col min="5385" max="5385" width="12.3333333333333" customWidth="1"/>
-    <col min="5386" max="5386" width="46.4444444444444" customWidth="1"/>
-    <col min="5633" max="5633" width="4.33333333333333" customWidth="1"/>
-    <col min="5634" max="5634" width="16.8888888888889" customWidth="1"/>
-    <col min="5635" max="5635" width="14.1111111111111" customWidth="1"/>
-    <col min="5636" max="5636" width="10.6666666666667" customWidth="1"/>
-    <col min="5637" max="5638" width="12.8888888888889" customWidth="1"/>
-    <col min="5639" max="5639" width="2.44444444444444" customWidth="1"/>
-    <col min="5640" max="5640" width="39.8888888888889" customWidth="1"/>
-    <col min="5641" max="5641" width="12.3333333333333" customWidth="1"/>
-    <col min="5642" max="5642" width="46.4444444444444" customWidth="1"/>
-    <col min="5889" max="5889" width="4.33333333333333" customWidth="1"/>
-    <col min="5890" max="5890" width="16.8888888888889" customWidth="1"/>
-    <col min="5891" max="5891" width="14.1111111111111" customWidth="1"/>
-    <col min="5892" max="5892" width="10.6666666666667" customWidth="1"/>
-    <col min="5893" max="5894" width="12.8888888888889" customWidth="1"/>
-    <col min="5895" max="5895" width="2.44444444444444" customWidth="1"/>
-    <col min="5896" max="5896" width="39.8888888888889" customWidth="1"/>
-    <col min="5897" max="5897" width="12.3333333333333" customWidth="1"/>
-    <col min="5898" max="5898" width="46.4444444444444" customWidth="1"/>
-    <col min="6145" max="6145" width="4.33333333333333" customWidth="1"/>
-    <col min="6146" max="6146" width="16.8888888888889" customWidth="1"/>
-    <col min="6147" max="6147" width="14.1111111111111" customWidth="1"/>
-    <col min="6148" max="6148" width="10.6666666666667" customWidth="1"/>
-    <col min="6149" max="6150" width="12.8888888888889" customWidth="1"/>
-    <col min="6151" max="6151" width="2.44444444444444" customWidth="1"/>
-    <col min="6152" max="6152" width="39.8888888888889" customWidth="1"/>
-    <col min="6153" max="6153" width="12.3333333333333" customWidth="1"/>
-    <col min="6154" max="6154" width="46.4444444444444" customWidth="1"/>
-    <col min="6401" max="6401" width="4.33333333333333" customWidth="1"/>
-    <col min="6402" max="6402" width="16.8888888888889" customWidth="1"/>
-    <col min="6403" max="6403" width="14.1111111111111" customWidth="1"/>
-    <col min="6404" max="6404" width="10.6666666666667" customWidth="1"/>
-    <col min="6405" max="6406" width="12.8888888888889" customWidth="1"/>
-    <col min="6407" max="6407" width="2.44444444444444" customWidth="1"/>
-    <col min="6408" max="6408" width="39.8888888888889" customWidth="1"/>
-    <col min="6409" max="6409" width="12.3333333333333" customWidth="1"/>
-    <col min="6410" max="6410" width="46.4444444444444" customWidth="1"/>
-    <col min="6657" max="6657" width="4.33333333333333" customWidth="1"/>
-    <col min="6658" max="6658" width="16.8888888888889" customWidth="1"/>
-    <col min="6659" max="6659" width="14.1111111111111" customWidth="1"/>
-    <col min="6660" max="6660" width="10.6666666666667" customWidth="1"/>
-    <col min="6661" max="6662" width="12.8888888888889" customWidth="1"/>
-    <col min="6663" max="6663" width="2.44444444444444" customWidth="1"/>
-    <col min="6664" max="6664" width="39.8888888888889" customWidth="1"/>
-    <col min="6665" max="6665" width="12.3333333333333" customWidth="1"/>
-    <col min="6666" max="6666" width="46.4444444444444" customWidth="1"/>
-    <col min="6913" max="6913" width="4.33333333333333" customWidth="1"/>
-    <col min="6914" max="6914" width="16.8888888888889" customWidth="1"/>
-    <col min="6915" max="6915" width="14.1111111111111" customWidth="1"/>
-    <col min="6916" max="6916" width="10.6666666666667" customWidth="1"/>
-    <col min="6917" max="6918" width="12.8888888888889" customWidth="1"/>
-    <col min="6919" max="6919" width="2.44444444444444" customWidth="1"/>
-    <col min="6920" max="6920" width="39.8888888888889" customWidth="1"/>
-    <col min="6921" max="6921" width="12.3333333333333" customWidth="1"/>
-    <col min="6922" max="6922" width="46.4444444444444" customWidth="1"/>
-    <col min="7169" max="7169" width="4.33333333333333" customWidth="1"/>
-    <col min="7170" max="7170" width="16.8888888888889" customWidth="1"/>
-    <col min="7171" max="7171" width="14.1111111111111" customWidth="1"/>
-    <col min="7172" max="7172" width="10.6666666666667" customWidth="1"/>
-    <col min="7173" max="7174" width="12.8888888888889" customWidth="1"/>
-    <col min="7175" max="7175" width="2.44444444444444" customWidth="1"/>
-    <col min="7176" max="7176" width="39.8888888888889" customWidth="1"/>
-    <col min="7177" max="7177" width="12.3333333333333" customWidth="1"/>
-    <col min="7178" max="7178" width="46.4444444444444" customWidth="1"/>
-    <col min="7425" max="7425" width="4.33333333333333" customWidth="1"/>
-    <col min="7426" max="7426" width="16.8888888888889" customWidth="1"/>
-    <col min="7427" max="7427" width="14.1111111111111" customWidth="1"/>
-    <col min="7428" max="7428" width="10.6666666666667" customWidth="1"/>
-    <col min="7429" max="7430" width="12.8888888888889" customWidth="1"/>
-    <col min="7431" max="7431" width="2.44444444444444" customWidth="1"/>
-    <col min="7432" max="7432" width="39.8888888888889" customWidth="1"/>
-    <col min="7433" max="7433" width="12.3333333333333" customWidth="1"/>
-    <col min="7434" max="7434" width="46.4444444444444" customWidth="1"/>
-    <col min="7681" max="7681" width="4.33333333333333" customWidth="1"/>
-    <col min="7682" max="7682" width="16.8888888888889" customWidth="1"/>
-    <col min="7683" max="7683" width="14.1111111111111" customWidth="1"/>
-    <col min="7684" max="7684" width="10.6666666666667" customWidth="1"/>
-    <col min="7685" max="7686" width="12.8888888888889" customWidth="1"/>
-    <col min="7687" max="7687" width="2.44444444444444" customWidth="1"/>
-    <col min="7688" max="7688" width="39.8888888888889" customWidth="1"/>
-    <col min="7689" max="7689" width="12.3333333333333" customWidth="1"/>
-    <col min="7690" max="7690" width="46.4444444444444" customWidth="1"/>
-    <col min="7937" max="7937" width="4.33333333333333" customWidth="1"/>
-    <col min="7938" max="7938" width="16.8888888888889" customWidth="1"/>
-    <col min="7939" max="7939" width="14.1111111111111" customWidth="1"/>
-    <col min="7940" max="7940" width="10.6666666666667" customWidth="1"/>
-    <col min="7941" max="7942" width="12.8888888888889" customWidth="1"/>
-    <col min="7943" max="7943" width="2.44444444444444" customWidth="1"/>
-    <col min="7944" max="7944" width="39.8888888888889" customWidth="1"/>
-    <col min="7945" max="7945" width="12.3333333333333" customWidth="1"/>
-    <col min="7946" max="7946" width="46.4444444444444" customWidth="1"/>
-    <col min="8193" max="8193" width="4.33333333333333" customWidth="1"/>
-    <col min="8194" max="8194" width="16.8888888888889" customWidth="1"/>
-    <col min="8195" max="8195" width="14.1111111111111" customWidth="1"/>
-    <col min="8196" max="8196" width="10.6666666666667" customWidth="1"/>
-    <col min="8197" max="8198" width="12.8888888888889" customWidth="1"/>
-    <col min="8199" max="8199" width="2.44444444444444" customWidth="1"/>
-    <col min="8200" max="8200" width="39.8888888888889" customWidth="1"/>
-    <col min="8201" max="8201" width="12.3333333333333" customWidth="1"/>
-    <col min="8202" max="8202" width="46.4444444444444" customWidth="1"/>
-    <col min="8449" max="8449" width="4.33333333333333" customWidth="1"/>
-    <col min="8450" max="8450" width="16.8888888888889" customWidth="1"/>
-    <col min="8451" max="8451" width="14.1111111111111" customWidth="1"/>
-    <col min="8452" max="8452" width="10.6666666666667" customWidth="1"/>
-    <col min="8453" max="8454" width="12.8888888888889" customWidth="1"/>
-    <col min="8455" max="8455" width="2.44444444444444" customWidth="1"/>
-    <col min="8456" max="8456" width="39.8888888888889" customWidth="1"/>
-    <col min="8457" max="8457" width="12.3333333333333" customWidth="1"/>
-    <col min="8458" max="8458" width="46.4444444444444" customWidth="1"/>
-    <col min="8705" max="8705" width="4.33333333333333" customWidth="1"/>
-    <col min="8706" max="8706" width="16.8888888888889" customWidth="1"/>
-    <col min="8707" max="8707" width="14.1111111111111" customWidth="1"/>
-    <col min="8708" max="8708" width="10.6666666666667" customWidth="1"/>
-    <col min="8709" max="8710" width="12.8888888888889" customWidth="1"/>
-    <col min="8711" max="8711" width="2.44444444444444" customWidth="1"/>
-    <col min="8712" max="8712" width="39.8888888888889" customWidth="1"/>
-    <col min="8713" max="8713" width="12.3333333333333" customWidth="1"/>
-    <col min="8714" max="8714" width="46.4444444444444" customWidth="1"/>
-    <col min="8961" max="8961" width="4.33333333333333" customWidth="1"/>
-    <col min="8962" max="8962" width="16.8888888888889" customWidth="1"/>
-    <col min="8963" max="8963" width="14.1111111111111" customWidth="1"/>
-    <col min="8964" max="8964" width="10.6666666666667" customWidth="1"/>
-    <col min="8965" max="8966" width="12.8888888888889" customWidth="1"/>
-    <col min="8967" max="8967" width="2.44444444444444" customWidth="1"/>
-    <col min="8968" max="8968" width="39.8888888888889" customWidth="1"/>
-    <col min="8969" max="8969" width="12.3333333333333" customWidth="1"/>
-    <col min="8970" max="8970" width="46.4444444444444" customWidth="1"/>
-    <col min="9217" max="9217" width="4.33333333333333" customWidth="1"/>
-    <col min="9218" max="9218" width="16.8888888888889" customWidth="1"/>
-    <col min="9219" max="9219" width="14.1111111111111" customWidth="1"/>
-    <col min="9220" max="9220" width="10.6666666666667" customWidth="1"/>
-    <col min="9221" max="9222" width="12.8888888888889" customWidth="1"/>
-    <col min="9223" max="9223" width="2.44444444444444" customWidth="1"/>
-    <col min="9224" max="9224" width="39.8888888888889" customWidth="1"/>
-    <col min="9225" max="9225" width="12.3333333333333" customWidth="1"/>
-    <col min="9226" max="9226" width="46.4444444444444" customWidth="1"/>
-    <col min="9473" max="9473" width="4.33333333333333" customWidth="1"/>
-    <col min="9474" max="9474" width="16.8888888888889" customWidth="1"/>
-    <col min="9475" max="9475" width="14.1111111111111" customWidth="1"/>
-    <col min="9476" max="9476" width="10.6666666666667" customWidth="1"/>
-    <col min="9477" max="9478" width="12.8888888888889" customWidth="1"/>
-    <col min="9479" max="9479" width="2.44444444444444" customWidth="1"/>
-    <col min="9480" max="9480" width="39.8888888888889" customWidth="1"/>
-    <col min="9481" max="9481" width="12.3333333333333" customWidth="1"/>
-    <col min="9482" max="9482" width="46.4444444444444" customWidth="1"/>
-    <col min="9729" max="9729" width="4.33333333333333" customWidth="1"/>
-    <col min="9730" max="9730" width="16.8888888888889" customWidth="1"/>
-    <col min="9731" max="9731" width="14.1111111111111" customWidth="1"/>
-    <col min="9732" max="9732" width="10.6666666666667" customWidth="1"/>
-    <col min="9733" max="9734" width="12.8888888888889" customWidth="1"/>
-    <col min="9735" max="9735" width="2.44444444444444" customWidth="1"/>
-    <col min="9736" max="9736" width="39.8888888888889" customWidth="1"/>
-    <col min="9737" max="9737" width="12.3333333333333" customWidth="1"/>
-    <col min="9738" max="9738" width="46.4444444444444" customWidth="1"/>
-    <col min="9985" max="9985" width="4.33333333333333" customWidth="1"/>
-    <col min="9986" max="9986" width="16.8888888888889" customWidth="1"/>
-    <col min="9987" max="9987" width="14.1111111111111" customWidth="1"/>
-    <col min="9988" max="9988" width="10.6666666666667" customWidth="1"/>
-    <col min="9989" max="9990" width="12.8888888888889" customWidth="1"/>
-    <col min="9991" max="9991" width="2.44444444444444" customWidth="1"/>
-    <col min="9992" max="9992" width="39.8888888888889" customWidth="1"/>
-    <col min="9993" max="9993" width="12.3333333333333" customWidth="1"/>
-    <col min="9994" max="9994" width="46.4444444444444" customWidth="1"/>
-    <col min="10241" max="10241" width="4.33333333333333" customWidth="1"/>
-    <col min="10242" max="10242" width="16.8888888888889" customWidth="1"/>
-    <col min="10243" max="10243" width="14.1111111111111" customWidth="1"/>
-    <col min="10244" max="10244" width="10.6666666666667" customWidth="1"/>
-    <col min="10245" max="10246" width="12.8888888888889" customWidth="1"/>
-    <col min="10247" max="10247" width="2.44444444444444" customWidth="1"/>
-    <col min="10248" max="10248" width="39.8888888888889" customWidth="1"/>
-    <col min="10249" max="10249" width="12.3333333333333" customWidth="1"/>
-    <col min="10250" max="10250" width="46.4444444444444" customWidth="1"/>
-    <col min="10497" max="10497" width="4.33333333333333" customWidth="1"/>
-    <col min="10498" max="10498" width="16.8888888888889" customWidth="1"/>
-    <col min="10499" max="10499" width="14.1111111111111" customWidth="1"/>
-    <col min="10500" max="10500" width="10.6666666666667" customWidth="1"/>
-    <col min="10501" max="10502" width="12.8888888888889" customWidth="1"/>
-    <col min="10503" max="10503" width="2.44444444444444" customWidth="1"/>
-    <col min="10504" max="10504" width="39.8888888888889" customWidth="1"/>
-    <col min="10505" max="10505" width="12.3333333333333" customWidth="1"/>
-    <col min="10506" max="10506" width="46.4444444444444" customWidth="1"/>
-    <col min="10753" max="10753" width="4.33333333333333" customWidth="1"/>
-    <col min="10754" max="10754" width="16.8888888888889" customWidth="1"/>
-    <col min="10755" max="10755" width="14.1111111111111" customWidth="1"/>
-    <col min="10756" max="10756" width="10.6666666666667" customWidth="1"/>
-    <col min="10757" max="10758" width="12.8888888888889" customWidth="1"/>
-    <col min="10759" max="10759" width="2.44444444444444" customWidth="1"/>
-    <col min="10760" max="10760" width="39.8888888888889" customWidth="1"/>
-    <col min="10761" max="10761" width="12.3333333333333" customWidth="1"/>
-    <col min="10762" max="10762" width="46.4444444444444" customWidth="1"/>
-    <col min="11009" max="11009" width="4.33333333333333" customWidth="1"/>
-    <col min="11010" max="11010" width="16.8888888888889" customWidth="1"/>
-    <col min="11011" max="11011" width="14.1111111111111" customWidth="1"/>
-    <col min="11012" max="11012" width="10.6666666666667" customWidth="1"/>
-    <col min="11013" max="11014" width="12.8888888888889" customWidth="1"/>
-    <col min="11015" max="11015" width="2.44444444444444" customWidth="1"/>
-    <col min="11016" max="11016" width="39.8888888888889" customWidth="1"/>
-    <col min="11017" max="11017" width="12.3333333333333" customWidth="1"/>
-    <col min="11018" max="11018" width="46.4444444444444" customWidth="1"/>
-    <col min="11265" max="11265" width="4.33333333333333" customWidth="1"/>
-    <col min="11266" max="11266" width="16.8888888888889" customWidth="1"/>
-    <col min="11267" max="11267" width="14.1111111111111" customWidth="1"/>
-    <col min="11268" max="11268" width="10.6666666666667" customWidth="1"/>
-    <col min="11269" max="11270" width="12.8888888888889" customWidth="1"/>
-    <col min="11271" max="11271" width="2.44444444444444" customWidth="1"/>
-    <col min="11272" max="11272" width="39.8888888888889" customWidth="1"/>
-    <col min="11273" max="11273" width="12.3333333333333" customWidth="1"/>
-    <col min="11274" max="11274" width="46.4444444444444" customWidth="1"/>
-    <col min="11521" max="11521" width="4.33333333333333" customWidth="1"/>
-    <col min="11522" max="11522" width="16.8888888888889" customWidth="1"/>
-    <col min="11523" max="11523" width="14.1111111111111" customWidth="1"/>
-    <col min="11524" max="11524" width="10.6666666666667" customWidth="1"/>
-    <col min="11525" max="11526" width="12.8888888888889" customWidth="1"/>
-    <col min="11527" max="11527" width="2.44444444444444" customWidth="1"/>
-    <col min="11528" max="11528" width="39.8888888888889" customWidth="1"/>
-    <col min="11529" max="11529" width="12.3333333333333" customWidth="1"/>
-    <col min="11530" max="11530" width="46.4444444444444" customWidth="1"/>
-    <col min="11777" max="11777" width="4.33333333333333" customWidth="1"/>
-    <col min="11778" max="11778" width="16.8888888888889" customWidth="1"/>
-    <col min="11779" max="11779" width="14.1111111111111" customWidth="1"/>
-    <col min="11780" max="11780" width="10.6666666666667" customWidth="1"/>
-    <col min="11781" max="11782" width="12.8888888888889" customWidth="1"/>
-    <col min="11783" max="11783" width="2.44444444444444" customWidth="1"/>
-    <col min="11784" max="11784" width="39.8888888888889" customWidth="1"/>
-    <col min="11785" max="11785" width="12.3333333333333" customWidth="1"/>
-    <col min="11786" max="11786" width="46.4444444444444" customWidth="1"/>
-    <col min="12033" max="12033" width="4.33333333333333" customWidth="1"/>
-    <col min="12034" max="12034" width="16.8888888888889" customWidth="1"/>
-    <col min="12035" max="12035" width="14.1111111111111" customWidth="1"/>
-    <col min="12036" max="12036" width="10.6666666666667" customWidth="1"/>
-    <col min="12037" max="12038" width="12.8888888888889" customWidth="1"/>
-    <col min="12039" max="12039" width="2.44444444444444" customWidth="1"/>
-    <col min="12040" max="12040" width="39.8888888888889" customWidth="1"/>
-    <col min="12041" max="12041" width="12.3333333333333" customWidth="1"/>
-    <col min="12042" max="12042" width="46.4444444444444" customWidth="1"/>
-    <col min="12289" max="12289" width="4.33333333333333" customWidth="1"/>
-    <col min="12290" max="12290" width="16.8888888888889" customWidth="1"/>
-    <col min="12291" max="12291" width="14.1111111111111" customWidth="1"/>
-    <col min="12292" max="12292" width="10.6666666666667" customWidth="1"/>
-    <col min="12293" max="12294" width="12.8888888888889" customWidth="1"/>
-    <col min="12295" max="12295" width="2.44444444444444" customWidth="1"/>
-    <col min="12296" max="12296" width="39.8888888888889" customWidth="1"/>
-    <col min="12297" max="12297" width="12.3333333333333" customWidth="1"/>
-    <col min="12298" max="12298" width="46.4444444444444" customWidth="1"/>
-    <col min="12545" max="12545" width="4.33333333333333" customWidth="1"/>
-    <col min="12546" max="12546" width="16.8888888888889" customWidth="1"/>
-    <col min="12547" max="12547" width="14.1111111111111" customWidth="1"/>
-    <col min="12548" max="12548" width="10.6666666666667" customWidth="1"/>
-    <col min="12549" max="12550" width="12.8888888888889" customWidth="1"/>
-    <col min="12551" max="12551" width="2.44444444444444" customWidth="1"/>
-    <col min="12552" max="12552" width="39.8888888888889" customWidth="1"/>
-    <col min="12553" max="12553" width="12.3333333333333" customWidth="1"/>
-    <col min="12554" max="12554" width="46.4444444444444" customWidth="1"/>
-    <col min="12801" max="12801" width="4.33333333333333" customWidth="1"/>
-    <col min="12802" max="12802" width="16.8888888888889" customWidth="1"/>
-    <col min="12803" max="12803" width="14.1111111111111" customWidth="1"/>
-    <col min="12804" max="12804" width="10.6666666666667" customWidth="1"/>
-    <col min="12805" max="12806" width="12.8888888888889" customWidth="1"/>
-    <col min="12807" max="12807" width="2.44444444444444" customWidth="1"/>
-    <col min="12808" max="12808" width="39.8888888888889" customWidth="1"/>
-    <col min="12809" max="12809" width="12.3333333333333" customWidth="1"/>
-    <col min="12810" max="12810" width="46.4444444444444" customWidth="1"/>
-    <col min="13057" max="13057" width="4.33333333333333" customWidth="1"/>
-    <col min="13058" max="13058" width="16.8888888888889" customWidth="1"/>
-    <col min="13059" max="13059" width="14.1111111111111" customWidth="1"/>
-    <col min="13060" max="13060" width="10.6666666666667" customWidth="1"/>
-    <col min="13061" max="13062" width="12.8888888888889" customWidth="1"/>
-    <col min="13063" max="13063" width="2.44444444444444" customWidth="1"/>
-    <col min="13064" max="13064" width="39.8888888888889" customWidth="1"/>
-    <col min="13065" max="13065" width="12.3333333333333" customWidth="1"/>
-    <col min="13066" max="13066" width="46.4444444444444" customWidth="1"/>
-    <col min="13313" max="13313" width="4.33333333333333" customWidth="1"/>
-    <col min="13314" max="13314" width="16.8888888888889" customWidth="1"/>
-    <col min="13315" max="13315" width="14.1111111111111" customWidth="1"/>
-    <col min="13316" max="13316" width="10.6666666666667" customWidth="1"/>
-    <col min="13317" max="13318" width="12.8888888888889" customWidth="1"/>
-    <col min="13319" max="13319" width="2.44444444444444" customWidth="1"/>
-    <col min="13320" max="13320" width="39.8888888888889" customWidth="1"/>
-    <col min="13321" max="13321" width="12.3333333333333" customWidth="1"/>
-    <col min="13322" max="13322" width="46.4444444444444" customWidth="1"/>
-    <col min="13569" max="13569" width="4.33333333333333" customWidth="1"/>
-    <col min="13570" max="13570" width="16.8888888888889" customWidth="1"/>
-    <col min="13571" max="13571" width="14.1111111111111" customWidth="1"/>
-    <col min="13572" max="13572" width="10.6666666666667" customWidth="1"/>
-    <col min="13573" max="13574" width="12.8888888888889" customWidth="1"/>
-    <col min="13575" max="13575" width="2.44444444444444" customWidth="1"/>
-    <col min="13576" max="13576" width="39.8888888888889" customWidth="1"/>
-    <col min="13577" max="13577" width="12.3333333333333" customWidth="1"/>
-    <col min="13578" max="13578" width="46.4444444444444" customWidth="1"/>
-    <col min="13825" max="13825" width="4.33333333333333" customWidth="1"/>
-    <col min="13826" max="13826" width="16.8888888888889" customWidth="1"/>
-    <col min="13827" max="13827" width="14.1111111111111" customWidth="1"/>
-    <col min="13828" max="13828" width="10.6666666666667" customWidth="1"/>
-    <col min="13829" max="13830" width="12.8888888888889" customWidth="1"/>
-    <col min="13831" max="13831" width="2.44444444444444" customWidth="1"/>
-    <col min="13832" max="13832" width="39.8888888888889" customWidth="1"/>
-    <col min="13833" max="13833" width="12.3333333333333" customWidth="1"/>
-    <col min="13834" max="13834" width="46.4444444444444" customWidth="1"/>
-    <col min="14081" max="14081" width="4.33333333333333" customWidth="1"/>
-    <col min="14082" max="14082" width="16.8888888888889" customWidth="1"/>
-    <col min="14083" max="14083" width="14.1111111111111" customWidth="1"/>
-    <col min="14084" max="14084" width="10.6666666666667" customWidth="1"/>
-    <col min="14085" max="14086" width="12.8888888888889" customWidth="1"/>
-    <col min="14087" max="14087" width="2.44444444444444" customWidth="1"/>
-    <col min="14088" max="14088" width="39.8888888888889" customWidth="1"/>
-    <col min="14089" max="14089" width="12.3333333333333" customWidth="1"/>
-    <col min="14090" max="14090" width="46.4444444444444" customWidth="1"/>
-    <col min="14337" max="14337" width="4.33333333333333" customWidth="1"/>
-    <col min="14338" max="14338" width="16.8888888888889" customWidth="1"/>
-    <col min="14339" max="14339" width="14.1111111111111" customWidth="1"/>
-    <col min="14340" max="14340" width="10.6666666666667" customWidth="1"/>
-    <col min="14341" max="14342" width="12.8888888888889" customWidth="1"/>
-    <col min="14343" max="14343" width="2.44444444444444" customWidth="1"/>
-    <col min="14344" max="14344" width="39.8888888888889" customWidth="1"/>
-    <col min="14345" max="14345" width="12.3333333333333" customWidth="1"/>
-    <col min="14346" max="14346" width="46.4444444444444" customWidth="1"/>
-    <col min="14593" max="14593" width="4.33333333333333" customWidth="1"/>
-    <col min="14594" max="14594" width="16.8888888888889" customWidth="1"/>
-    <col min="14595" max="14595" width="14.1111111111111" customWidth="1"/>
-    <col min="14596" max="14596" width="10.6666666666667" customWidth="1"/>
-    <col min="14597" max="14598" width="12.8888888888889" customWidth="1"/>
-    <col min="14599" max="14599" width="2.44444444444444" customWidth="1"/>
-    <col min="14600" max="14600" width="39.8888888888889" customWidth="1"/>
-    <col min="14601" max="14601" width="12.3333333333333" customWidth="1"/>
-    <col min="14602" max="14602" width="46.4444444444444" customWidth="1"/>
-    <col min="14849" max="14849" width="4.33333333333333" customWidth="1"/>
-    <col min="14850" max="14850" width="16.8888888888889" customWidth="1"/>
-    <col min="14851" max="14851" width="14.1111111111111" customWidth="1"/>
-    <col min="14852" max="14852" width="10.6666666666667" customWidth="1"/>
-    <col min="14853" max="14854" width="12.8888888888889" customWidth="1"/>
-    <col min="14855" max="14855" width="2.44444444444444" customWidth="1"/>
-    <col min="14856" max="14856" width="39.8888888888889" customWidth="1"/>
-    <col min="14857" max="14857" width="12.3333333333333" customWidth="1"/>
-    <col min="14858" max="14858" width="46.4444444444444" customWidth="1"/>
-    <col min="15105" max="15105" width="4.33333333333333" customWidth="1"/>
-    <col min="15106" max="15106" width="16.8888888888889" customWidth="1"/>
-    <col min="15107" max="15107" width="14.1111111111111" customWidth="1"/>
-    <col min="15108" max="15108" width="10.6666666666667" customWidth="1"/>
-    <col min="15109" max="15110" width="12.8888888888889" customWidth="1"/>
-    <col min="15111" max="15111" width="2.44444444444444" customWidth="1"/>
-    <col min="15112" max="15112" width="39.8888888888889" customWidth="1"/>
-    <col min="15113" max="15113" width="12.3333333333333" customWidth="1"/>
-    <col min="15114" max="15114" width="46.4444444444444" customWidth="1"/>
-    <col min="15361" max="15361" width="4.33333333333333" customWidth="1"/>
-    <col min="15362" max="15362" width="16.8888888888889" customWidth="1"/>
-    <col min="15363" max="15363" width="14.1111111111111" customWidth="1"/>
-    <col min="15364" max="15364" width="10.6666666666667" customWidth="1"/>
-    <col min="15365" max="15366" width="12.8888888888889" customWidth="1"/>
-    <col min="15367" max="15367" width="2.44444444444444" customWidth="1"/>
-    <col min="15368" max="15368" width="39.8888888888889" customWidth="1"/>
-    <col min="15369" max="15369" width="12.3333333333333" customWidth="1"/>
-    <col min="15370" max="15370" width="46.4444444444444" customWidth="1"/>
-    <col min="15617" max="15617" width="4.33333333333333" customWidth="1"/>
-    <col min="15618" max="15618" width="16.8888888888889" customWidth="1"/>
-    <col min="15619" max="15619" width="14.1111111111111" customWidth="1"/>
-    <col min="15620" max="15620" width="10.6666666666667" customWidth="1"/>
-    <col min="15621" max="15622" width="12.8888888888889" customWidth="1"/>
-    <col min="15623" max="15623" width="2.44444444444444" customWidth="1"/>
-    <col min="15624" max="15624" width="39.8888888888889" customWidth="1"/>
-    <col min="15625" max="15625" width="12.3333333333333" customWidth="1"/>
-    <col min="15626" max="15626" width="46.4444444444444" customWidth="1"/>
-    <col min="15873" max="15873" width="4.33333333333333" customWidth="1"/>
-    <col min="15874" max="15874" width="16.8888888888889" customWidth="1"/>
-    <col min="15875" max="15875" width="14.1111111111111" customWidth="1"/>
-    <col min="15876" max="15876" width="10.6666666666667" customWidth="1"/>
-    <col min="15877" max="15878" width="12.8888888888889" customWidth="1"/>
-    <col min="15879" max="15879" width="2.44444444444444" customWidth="1"/>
-    <col min="15880" max="15880" width="39.8888888888889" customWidth="1"/>
-    <col min="15881" max="15881" width="12.3333333333333" customWidth="1"/>
-    <col min="15882" max="15882" width="46.4444444444444" customWidth="1"/>
-    <col min="16129" max="16129" width="4.33333333333333" customWidth="1"/>
-    <col min="16130" max="16130" width="16.8888888888889" customWidth="1"/>
-    <col min="16131" max="16131" width="14.1111111111111" customWidth="1"/>
-    <col min="16132" max="16132" width="10.6666666666667" customWidth="1"/>
-    <col min="16133" max="16134" width="12.8888888888889" customWidth="1"/>
-    <col min="16135" max="16135" width="2.44444444444444" customWidth="1"/>
-    <col min="16136" max="16136" width="39.8888888888889" customWidth="1"/>
-    <col min="16137" max="16137" width="12.3333333333333" customWidth="1"/>
-    <col min="16138" max="16138" width="46.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="116.42578125" style="2" customWidth="1"/>
+    <col min="257" max="257" width="4.28515625" customWidth="1"/>
+    <col min="258" max="258" width="16.85546875" customWidth="1"/>
+    <col min="259" max="259" width="14.140625" customWidth="1"/>
+    <col min="260" max="260" width="10.7109375" customWidth="1"/>
+    <col min="261" max="262" width="12.85546875" customWidth="1"/>
+    <col min="263" max="263" width="2.42578125" customWidth="1"/>
+    <col min="264" max="264" width="39.85546875" customWidth="1"/>
+    <col min="265" max="265" width="12.28515625" customWidth="1"/>
+    <col min="266" max="266" width="46.42578125" customWidth="1"/>
+    <col min="513" max="513" width="4.28515625" customWidth="1"/>
+    <col min="514" max="514" width="16.85546875" customWidth="1"/>
+    <col min="515" max="515" width="14.140625" customWidth="1"/>
+    <col min="516" max="516" width="10.7109375" customWidth="1"/>
+    <col min="517" max="518" width="12.85546875" customWidth="1"/>
+    <col min="519" max="519" width="2.42578125" customWidth="1"/>
+    <col min="520" max="520" width="39.85546875" customWidth="1"/>
+    <col min="521" max="521" width="12.28515625" customWidth="1"/>
+    <col min="522" max="522" width="46.42578125" customWidth="1"/>
+    <col min="769" max="769" width="4.28515625" customWidth="1"/>
+    <col min="770" max="770" width="16.85546875" customWidth="1"/>
+    <col min="771" max="771" width="14.140625" customWidth="1"/>
+    <col min="772" max="772" width="10.7109375" customWidth="1"/>
+    <col min="773" max="774" width="12.85546875" customWidth="1"/>
+    <col min="775" max="775" width="2.42578125" customWidth="1"/>
+    <col min="776" max="776" width="39.85546875" customWidth="1"/>
+    <col min="777" max="777" width="12.28515625" customWidth="1"/>
+    <col min="778" max="778" width="46.42578125" customWidth="1"/>
+    <col min="1025" max="1025" width="4.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="16.85546875" customWidth="1"/>
+    <col min="1027" max="1027" width="14.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="10.7109375" customWidth="1"/>
+    <col min="1029" max="1030" width="12.85546875" customWidth="1"/>
+    <col min="1031" max="1031" width="2.42578125" customWidth="1"/>
+    <col min="1032" max="1032" width="39.85546875" customWidth="1"/>
+    <col min="1033" max="1033" width="12.28515625" customWidth="1"/>
+    <col min="1034" max="1034" width="46.42578125" customWidth="1"/>
+    <col min="1281" max="1281" width="4.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="16.85546875" customWidth="1"/>
+    <col min="1283" max="1283" width="14.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="10.7109375" customWidth="1"/>
+    <col min="1285" max="1286" width="12.85546875" customWidth="1"/>
+    <col min="1287" max="1287" width="2.42578125" customWidth="1"/>
+    <col min="1288" max="1288" width="39.85546875" customWidth="1"/>
+    <col min="1289" max="1289" width="12.28515625" customWidth="1"/>
+    <col min="1290" max="1290" width="46.42578125" customWidth="1"/>
+    <col min="1537" max="1537" width="4.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="16.85546875" customWidth="1"/>
+    <col min="1539" max="1539" width="14.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="10.7109375" customWidth="1"/>
+    <col min="1541" max="1542" width="12.85546875" customWidth="1"/>
+    <col min="1543" max="1543" width="2.42578125" customWidth="1"/>
+    <col min="1544" max="1544" width="39.85546875" customWidth="1"/>
+    <col min="1545" max="1545" width="12.28515625" customWidth="1"/>
+    <col min="1546" max="1546" width="46.42578125" customWidth="1"/>
+    <col min="1793" max="1793" width="4.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="16.85546875" customWidth="1"/>
+    <col min="1795" max="1795" width="14.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="10.7109375" customWidth="1"/>
+    <col min="1797" max="1798" width="12.85546875" customWidth="1"/>
+    <col min="1799" max="1799" width="2.42578125" customWidth="1"/>
+    <col min="1800" max="1800" width="39.85546875" customWidth="1"/>
+    <col min="1801" max="1801" width="12.28515625" customWidth="1"/>
+    <col min="1802" max="1802" width="46.42578125" customWidth="1"/>
+    <col min="2049" max="2049" width="4.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="16.85546875" customWidth="1"/>
+    <col min="2051" max="2051" width="14.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="10.7109375" customWidth="1"/>
+    <col min="2053" max="2054" width="12.85546875" customWidth="1"/>
+    <col min="2055" max="2055" width="2.42578125" customWidth="1"/>
+    <col min="2056" max="2056" width="39.85546875" customWidth="1"/>
+    <col min="2057" max="2057" width="12.28515625" customWidth="1"/>
+    <col min="2058" max="2058" width="46.42578125" customWidth="1"/>
+    <col min="2305" max="2305" width="4.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="16.85546875" customWidth="1"/>
+    <col min="2307" max="2307" width="14.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="10.7109375" customWidth="1"/>
+    <col min="2309" max="2310" width="12.85546875" customWidth="1"/>
+    <col min="2311" max="2311" width="2.42578125" customWidth="1"/>
+    <col min="2312" max="2312" width="39.85546875" customWidth="1"/>
+    <col min="2313" max="2313" width="12.28515625" customWidth="1"/>
+    <col min="2314" max="2314" width="46.42578125" customWidth="1"/>
+    <col min="2561" max="2561" width="4.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="16.85546875" customWidth="1"/>
+    <col min="2563" max="2563" width="14.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="10.7109375" customWidth="1"/>
+    <col min="2565" max="2566" width="12.85546875" customWidth="1"/>
+    <col min="2567" max="2567" width="2.42578125" customWidth="1"/>
+    <col min="2568" max="2568" width="39.85546875" customWidth="1"/>
+    <col min="2569" max="2569" width="12.28515625" customWidth="1"/>
+    <col min="2570" max="2570" width="46.42578125" customWidth="1"/>
+    <col min="2817" max="2817" width="4.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="16.85546875" customWidth="1"/>
+    <col min="2819" max="2819" width="14.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="10.7109375" customWidth="1"/>
+    <col min="2821" max="2822" width="12.85546875" customWidth="1"/>
+    <col min="2823" max="2823" width="2.42578125" customWidth="1"/>
+    <col min="2824" max="2824" width="39.85546875" customWidth="1"/>
+    <col min="2825" max="2825" width="12.28515625" customWidth="1"/>
+    <col min="2826" max="2826" width="46.42578125" customWidth="1"/>
+    <col min="3073" max="3073" width="4.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="16.85546875" customWidth="1"/>
+    <col min="3075" max="3075" width="14.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="10.7109375" customWidth="1"/>
+    <col min="3077" max="3078" width="12.85546875" customWidth="1"/>
+    <col min="3079" max="3079" width="2.42578125" customWidth="1"/>
+    <col min="3080" max="3080" width="39.85546875" customWidth="1"/>
+    <col min="3081" max="3081" width="12.28515625" customWidth="1"/>
+    <col min="3082" max="3082" width="46.42578125" customWidth="1"/>
+    <col min="3329" max="3329" width="4.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="16.85546875" customWidth="1"/>
+    <col min="3331" max="3331" width="14.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="10.7109375" customWidth="1"/>
+    <col min="3333" max="3334" width="12.85546875" customWidth="1"/>
+    <col min="3335" max="3335" width="2.42578125" customWidth="1"/>
+    <col min="3336" max="3336" width="39.85546875" customWidth="1"/>
+    <col min="3337" max="3337" width="12.28515625" customWidth="1"/>
+    <col min="3338" max="3338" width="46.42578125" customWidth="1"/>
+    <col min="3585" max="3585" width="4.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="16.85546875" customWidth="1"/>
+    <col min="3587" max="3587" width="14.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="10.7109375" customWidth="1"/>
+    <col min="3589" max="3590" width="12.85546875" customWidth="1"/>
+    <col min="3591" max="3591" width="2.42578125" customWidth="1"/>
+    <col min="3592" max="3592" width="39.85546875" customWidth="1"/>
+    <col min="3593" max="3593" width="12.28515625" customWidth="1"/>
+    <col min="3594" max="3594" width="46.42578125" customWidth="1"/>
+    <col min="3841" max="3841" width="4.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="16.85546875" customWidth="1"/>
+    <col min="3843" max="3843" width="14.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="10.7109375" customWidth="1"/>
+    <col min="3845" max="3846" width="12.85546875" customWidth="1"/>
+    <col min="3847" max="3847" width="2.42578125" customWidth="1"/>
+    <col min="3848" max="3848" width="39.85546875" customWidth="1"/>
+    <col min="3849" max="3849" width="12.28515625" customWidth="1"/>
+    <col min="3850" max="3850" width="46.42578125" customWidth="1"/>
+    <col min="4097" max="4097" width="4.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="16.85546875" customWidth="1"/>
+    <col min="4099" max="4099" width="14.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="10.7109375" customWidth="1"/>
+    <col min="4101" max="4102" width="12.85546875" customWidth="1"/>
+    <col min="4103" max="4103" width="2.42578125" customWidth="1"/>
+    <col min="4104" max="4104" width="39.85546875" customWidth="1"/>
+    <col min="4105" max="4105" width="12.28515625" customWidth="1"/>
+    <col min="4106" max="4106" width="46.42578125" customWidth="1"/>
+    <col min="4353" max="4353" width="4.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="16.85546875" customWidth="1"/>
+    <col min="4355" max="4355" width="14.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="10.7109375" customWidth="1"/>
+    <col min="4357" max="4358" width="12.85546875" customWidth="1"/>
+    <col min="4359" max="4359" width="2.42578125" customWidth="1"/>
+    <col min="4360" max="4360" width="39.85546875" customWidth="1"/>
+    <col min="4361" max="4361" width="12.28515625" customWidth="1"/>
+    <col min="4362" max="4362" width="46.42578125" customWidth="1"/>
+    <col min="4609" max="4609" width="4.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="16.85546875" customWidth="1"/>
+    <col min="4611" max="4611" width="14.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="10.7109375" customWidth="1"/>
+    <col min="4613" max="4614" width="12.85546875" customWidth="1"/>
+    <col min="4615" max="4615" width="2.42578125" customWidth="1"/>
+    <col min="4616" max="4616" width="39.85546875" customWidth="1"/>
+    <col min="4617" max="4617" width="12.28515625" customWidth="1"/>
+    <col min="4618" max="4618" width="46.42578125" customWidth="1"/>
+    <col min="4865" max="4865" width="4.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="16.85546875" customWidth="1"/>
+    <col min="4867" max="4867" width="14.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="10.7109375" customWidth="1"/>
+    <col min="4869" max="4870" width="12.85546875" customWidth="1"/>
+    <col min="4871" max="4871" width="2.42578125" customWidth="1"/>
+    <col min="4872" max="4872" width="39.85546875" customWidth="1"/>
+    <col min="4873" max="4873" width="12.28515625" customWidth="1"/>
+    <col min="4874" max="4874" width="46.42578125" customWidth="1"/>
+    <col min="5121" max="5121" width="4.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="16.85546875" customWidth="1"/>
+    <col min="5123" max="5123" width="14.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="10.7109375" customWidth="1"/>
+    <col min="5125" max="5126" width="12.85546875" customWidth="1"/>
+    <col min="5127" max="5127" width="2.42578125" customWidth="1"/>
+    <col min="5128" max="5128" width="39.85546875" customWidth="1"/>
+    <col min="5129" max="5129" width="12.28515625" customWidth="1"/>
+    <col min="5130" max="5130" width="46.42578125" customWidth="1"/>
+    <col min="5377" max="5377" width="4.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="16.85546875" customWidth="1"/>
+    <col min="5379" max="5379" width="14.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="10.7109375" customWidth="1"/>
+    <col min="5381" max="5382" width="12.85546875" customWidth="1"/>
+    <col min="5383" max="5383" width="2.42578125" customWidth="1"/>
+    <col min="5384" max="5384" width="39.85546875" customWidth="1"/>
+    <col min="5385" max="5385" width="12.28515625" customWidth="1"/>
+    <col min="5386" max="5386" width="46.42578125" customWidth="1"/>
+    <col min="5633" max="5633" width="4.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="16.85546875" customWidth="1"/>
+    <col min="5635" max="5635" width="14.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="10.7109375" customWidth="1"/>
+    <col min="5637" max="5638" width="12.85546875" customWidth="1"/>
+    <col min="5639" max="5639" width="2.42578125" customWidth="1"/>
+    <col min="5640" max="5640" width="39.85546875" customWidth="1"/>
+    <col min="5641" max="5641" width="12.28515625" customWidth="1"/>
+    <col min="5642" max="5642" width="46.42578125" customWidth="1"/>
+    <col min="5889" max="5889" width="4.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="16.85546875" customWidth="1"/>
+    <col min="5891" max="5891" width="14.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="10.7109375" customWidth="1"/>
+    <col min="5893" max="5894" width="12.85546875" customWidth="1"/>
+    <col min="5895" max="5895" width="2.42578125" customWidth="1"/>
+    <col min="5896" max="5896" width="39.85546875" customWidth="1"/>
+    <col min="5897" max="5897" width="12.28515625" customWidth="1"/>
+    <col min="5898" max="5898" width="46.42578125" customWidth="1"/>
+    <col min="6145" max="6145" width="4.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="16.85546875" customWidth="1"/>
+    <col min="6147" max="6147" width="14.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="10.7109375" customWidth="1"/>
+    <col min="6149" max="6150" width="12.85546875" customWidth="1"/>
+    <col min="6151" max="6151" width="2.42578125" customWidth="1"/>
+    <col min="6152" max="6152" width="39.85546875" customWidth="1"/>
+    <col min="6153" max="6153" width="12.28515625" customWidth="1"/>
+    <col min="6154" max="6154" width="46.42578125" customWidth="1"/>
+    <col min="6401" max="6401" width="4.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="16.85546875" customWidth="1"/>
+    <col min="6403" max="6403" width="14.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="10.7109375" customWidth="1"/>
+    <col min="6405" max="6406" width="12.85546875" customWidth="1"/>
+    <col min="6407" max="6407" width="2.42578125" customWidth="1"/>
+    <col min="6408" max="6408" width="39.85546875" customWidth="1"/>
+    <col min="6409" max="6409" width="12.28515625" customWidth="1"/>
+    <col min="6410" max="6410" width="46.42578125" customWidth="1"/>
+    <col min="6657" max="6657" width="4.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="16.85546875" customWidth="1"/>
+    <col min="6659" max="6659" width="14.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="10.7109375" customWidth="1"/>
+    <col min="6661" max="6662" width="12.85546875" customWidth="1"/>
+    <col min="6663" max="6663" width="2.42578125" customWidth="1"/>
+    <col min="6664" max="6664" width="39.85546875" customWidth="1"/>
+    <col min="6665" max="6665" width="12.28515625" customWidth="1"/>
+    <col min="6666" max="6666" width="46.42578125" customWidth="1"/>
+    <col min="6913" max="6913" width="4.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="16.85546875" customWidth="1"/>
+    <col min="6915" max="6915" width="14.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="10.7109375" customWidth="1"/>
+    <col min="6917" max="6918" width="12.85546875" customWidth="1"/>
+    <col min="6919" max="6919" width="2.42578125" customWidth="1"/>
+    <col min="6920" max="6920" width="39.85546875" customWidth="1"/>
+    <col min="6921" max="6921" width="12.28515625" customWidth="1"/>
+    <col min="6922" max="6922" width="46.42578125" customWidth="1"/>
+    <col min="7169" max="7169" width="4.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="16.85546875" customWidth="1"/>
+    <col min="7171" max="7171" width="14.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="10.7109375" customWidth="1"/>
+    <col min="7173" max="7174" width="12.85546875" customWidth="1"/>
+    <col min="7175" max="7175" width="2.42578125" customWidth="1"/>
+    <col min="7176" max="7176" width="39.85546875" customWidth="1"/>
+    <col min="7177" max="7177" width="12.28515625" customWidth="1"/>
+    <col min="7178" max="7178" width="46.42578125" customWidth="1"/>
+    <col min="7425" max="7425" width="4.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="16.85546875" customWidth="1"/>
+    <col min="7427" max="7427" width="14.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="10.7109375" customWidth="1"/>
+    <col min="7429" max="7430" width="12.85546875" customWidth="1"/>
+    <col min="7431" max="7431" width="2.42578125" customWidth="1"/>
+    <col min="7432" max="7432" width="39.85546875" customWidth="1"/>
+    <col min="7433" max="7433" width="12.28515625" customWidth="1"/>
+    <col min="7434" max="7434" width="46.42578125" customWidth="1"/>
+    <col min="7681" max="7681" width="4.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="16.85546875" customWidth="1"/>
+    <col min="7683" max="7683" width="14.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="10.7109375" customWidth="1"/>
+    <col min="7685" max="7686" width="12.85546875" customWidth="1"/>
+    <col min="7687" max="7687" width="2.42578125" customWidth="1"/>
+    <col min="7688" max="7688" width="39.85546875" customWidth="1"/>
+    <col min="7689" max="7689" width="12.28515625" customWidth="1"/>
+    <col min="7690" max="7690" width="46.42578125" customWidth="1"/>
+    <col min="7937" max="7937" width="4.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="16.85546875" customWidth="1"/>
+    <col min="7939" max="7939" width="14.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="10.7109375" customWidth="1"/>
+    <col min="7941" max="7942" width="12.85546875" customWidth="1"/>
+    <col min="7943" max="7943" width="2.42578125" customWidth="1"/>
+    <col min="7944" max="7944" width="39.85546875" customWidth="1"/>
+    <col min="7945" max="7945" width="12.28515625" customWidth="1"/>
+    <col min="7946" max="7946" width="46.42578125" customWidth="1"/>
+    <col min="8193" max="8193" width="4.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="16.85546875" customWidth="1"/>
+    <col min="8195" max="8195" width="14.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="10.7109375" customWidth="1"/>
+    <col min="8197" max="8198" width="12.85546875" customWidth="1"/>
+    <col min="8199" max="8199" width="2.42578125" customWidth="1"/>
+    <col min="8200" max="8200" width="39.85546875" customWidth="1"/>
+    <col min="8201" max="8201" width="12.28515625" customWidth="1"/>
+    <col min="8202" max="8202" width="46.42578125" customWidth="1"/>
+    <col min="8449" max="8449" width="4.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="16.85546875" customWidth="1"/>
+    <col min="8451" max="8451" width="14.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="10.7109375" customWidth="1"/>
+    <col min="8453" max="8454" width="12.85546875" customWidth="1"/>
+    <col min="8455" max="8455" width="2.42578125" customWidth="1"/>
+    <col min="8456" max="8456" width="39.85546875" customWidth="1"/>
+    <col min="8457" max="8457" width="12.28515625" customWidth="1"/>
+    <col min="8458" max="8458" width="46.42578125" customWidth="1"/>
+    <col min="8705" max="8705" width="4.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="16.85546875" customWidth="1"/>
+    <col min="8707" max="8707" width="14.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="10.7109375" customWidth="1"/>
+    <col min="8709" max="8710" width="12.85546875" customWidth="1"/>
+    <col min="8711" max="8711" width="2.42578125" customWidth="1"/>
+    <col min="8712" max="8712" width="39.85546875" customWidth="1"/>
+    <col min="8713" max="8713" width="12.28515625" customWidth="1"/>
+    <col min="8714" max="8714" width="46.42578125" customWidth="1"/>
+    <col min="8961" max="8961" width="4.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="16.85546875" customWidth="1"/>
+    <col min="8963" max="8963" width="14.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="10.7109375" customWidth="1"/>
+    <col min="8965" max="8966" width="12.85546875" customWidth="1"/>
+    <col min="8967" max="8967" width="2.42578125" customWidth="1"/>
+    <col min="8968" max="8968" width="39.85546875" customWidth="1"/>
+    <col min="8969" max="8969" width="12.28515625" customWidth="1"/>
+    <col min="8970" max="8970" width="46.42578125" customWidth="1"/>
+    <col min="9217" max="9217" width="4.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="16.85546875" customWidth="1"/>
+    <col min="9219" max="9219" width="14.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="10.7109375" customWidth="1"/>
+    <col min="9221" max="9222" width="12.85546875" customWidth="1"/>
+    <col min="9223" max="9223" width="2.42578125" customWidth="1"/>
+    <col min="9224" max="9224" width="39.85546875" customWidth="1"/>
+    <col min="9225" max="9225" width="12.28515625" customWidth="1"/>
+    <col min="9226" max="9226" width="46.42578125" customWidth="1"/>
+    <col min="9473" max="9473" width="4.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="16.85546875" customWidth="1"/>
+    <col min="9475" max="9475" width="14.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="10.7109375" customWidth="1"/>
+    <col min="9477" max="9478" width="12.85546875" customWidth="1"/>
+    <col min="9479" max="9479" width="2.42578125" customWidth="1"/>
+    <col min="9480" max="9480" width="39.85546875" customWidth="1"/>
+    <col min="9481" max="9481" width="12.28515625" customWidth="1"/>
+    <col min="9482" max="9482" width="46.42578125" customWidth="1"/>
+    <col min="9729" max="9729" width="4.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="16.85546875" customWidth="1"/>
+    <col min="9731" max="9731" width="14.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="10.7109375" customWidth="1"/>
+    <col min="9733" max="9734" width="12.85546875" customWidth="1"/>
+    <col min="9735" max="9735" width="2.42578125" customWidth="1"/>
+    <col min="9736" max="9736" width="39.85546875" customWidth="1"/>
+    <col min="9737" max="9737" width="12.28515625" customWidth="1"/>
+    <col min="9738" max="9738" width="46.42578125" customWidth="1"/>
+    <col min="9985" max="9985" width="4.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="16.85546875" customWidth="1"/>
+    <col min="9987" max="9987" width="14.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="10.7109375" customWidth="1"/>
+    <col min="9989" max="9990" width="12.85546875" customWidth="1"/>
+    <col min="9991" max="9991" width="2.42578125" customWidth="1"/>
+    <col min="9992" max="9992" width="39.85546875" customWidth="1"/>
+    <col min="9993" max="9993" width="12.28515625" customWidth="1"/>
+    <col min="9994" max="9994" width="46.42578125" customWidth="1"/>
+    <col min="10241" max="10241" width="4.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="16.85546875" customWidth="1"/>
+    <col min="10243" max="10243" width="14.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="10.7109375" customWidth="1"/>
+    <col min="10245" max="10246" width="12.85546875" customWidth="1"/>
+    <col min="10247" max="10247" width="2.42578125" customWidth="1"/>
+    <col min="10248" max="10248" width="39.85546875" customWidth="1"/>
+    <col min="10249" max="10249" width="12.28515625" customWidth="1"/>
+    <col min="10250" max="10250" width="46.42578125" customWidth="1"/>
+    <col min="10497" max="10497" width="4.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="16.85546875" customWidth="1"/>
+    <col min="10499" max="10499" width="14.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="10.7109375" customWidth="1"/>
+    <col min="10501" max="10502" width="12.85546875" customWidth="1"/>
+    <col min="10503" max="10503" width="2.42578125" customWidth="1"/>
+    <col min="10504" max="10504" width="39.85546875" customWidth="1"/>
+    <col min="10505" max="10505" width="12.28515625" customWidth="1"/>
+    <col min="10506" max="10506" width="46.42578125" customWidth="1"/>
+    <col min="10753" max="10753" width="4.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="16.85546875" customWidth="1"/>
+    <col min="10755" max="10755" width="14.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="10.7109375" customWidth="1"/>
+    <col min="10757" max="10758" width="12.85546875" customWidth="1"/>
+    <col min="10759" max="10759" width="2.42578125" customWidth="1"/>
+    <col min="10760" max="10760" width="39.85546875" customWidth="1"/>
+    <col min="10761" max="10761" width="12.28515625" customWidth="1"/>
+    <col min="10762" max="10762" width="46.42578125" customWidth="1"/>
+    <col min="11009" max="11009" width="4.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="16.85546875" customWidth="1"/>
+    <col min="11011" max="11011" width="14.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="10.7109375" customWidth="1"/>
+    <col min="11013" max="11014" width="12.85546875" customWidth="1"/>
+    <col min="11015" max="11015" width="2.42578125" customWidth="1"/>
+    <col min="11016" max="11016" width="39.85546875" customWidth="1"/>
+    <col min="11017" max="11017" width="12.28515625" customWidth="1"/>
+    <col min="11018" max="11018" width="46.42578125" customWidth="1"/>
+    <col min="11265" max="11265" width="4.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="16.85546875" customWidth="1"/>
+    <col min="11267" max="11267" width="14.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="10.7109375" customWidth="1"/>
+    <col min="11269" max="11270" width="12.85546875" customWidth="1"/>
+    <col min="11271" max="11271" width="2.42578125" customWidth="1"/>
+    <col min="11272" max="11272" width="39.85546875" customWidth="1"/>
+    <col min="11273" max="11273" width="12.28515625" customWidth="1"/>
+    <col min="11274" max="11274" width="46.42578125" customWidth="1"/>
+    <col min="11521" max="11521" width="4.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="16.85546875" customWidth="1"/>
+    <col min="11523" max="11523" width="14.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="10.7109375" customWidth="1"/>
+    <col min="11525" max="11526" width="12.85546875" customWidth="1"/>
+    <col min="11527" max="11527" width="2.42578125" customWidth="1"/>
+    <col min="11528" max="11528" width="39.85546875" customWidth="1"/>
+    <col min="11529" max="11529" width="12.28515625" customWidth="1"/>
+    <col min="11530" max="11530" width="46.42578125" customWidth="1"/>
+    <col min="11777" max="11777" width="4.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="16.85546875" customWidth="1"/>
+    <col min="11779" max="11779" width="14.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="10.7109375" customWidth="1"/>
+    <col min="11781" max="11782" width="12.85546875" customWidth="1"/>
+    <col min="11783" max="11783" width="2.42578125" customWidth="1"/>
+    <col min="11784" max="11784" width="39.85546875" customWidth="1"/>
+    <col min="11785" max="11785" width="12.28515625" customWidth="1"/>
+    <col min="11786" max="11786" width="46.42578125" customWidth="1"/>
+    <col min="12033" max="12033" width="4.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="16.85546875" customWidth="1"/>
+    <col min="12035" max="12035" width="14.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="10.7109375" customWidth="1"/>
+    <col min="12037" max="12038" width="12.85546875" customWidth="1"/>
+    <col min="12039" max="12039" width="2.42578125" customWidth="1"/>
+    <col min="12040" max="12040" width="39.85546875" customWidth="1"/>
+    <col min="12041" max="12041" width="12.28515625" customWidth="1"/>
+    <col min="12042" max="12042" width="46.42578125" customWidth="1"/>
+    <col min="12289" max="12289" width="4.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="16.85546875" customWidth="1"/>
+    <col min="12291" max="12291" width="14.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="10.7109375" customWidth="1"/>
+    <col min="12293" max="12294" width="12.85546875" customWidth="1"/>
+    <col min="12295" max="12295" width="2.42578125" customWidth="1"/>
+    <col min="12296" max="12296" width="39.85546875" customWidth="1"/>
+    <col min="12297" max="12297" width="12.28515625" customWidth="1"/>
+    <col min="12298" max="12298" width="46.42578125" customWidth="1"/>
+    <col min="12545" max="12545" width="4.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="16.85546875" customWidth="1"/>
+    <col min="12547" max="12547" width="14.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="10.7109375" customWidth="1"/>
+    <col min="12549" max="12550" width="12.85546875" customWidth="1"/>
+    <col min="12551" max="12551" width="2.42578125" customWidth="1"/>
+    <col min="12552" max="12552" width="39.85546875" customWidth="1"/>
+    <col min="12553" max="12553" width="12.28515625" customWidth="1"/>
+    <col min="12554" max="12554" width="46.42578125" customWidth="1"/>
+    <col min="12801" max="12801" width="4.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="16.85546875" customWidth="1"/>
+    <col min="12803" max="12803" width="14.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="10.7109375" customWidth="1"/>
+    <col min="12805" max="12806" width="12.85546875" customWidth="1"/>
+    <col min="12807" max="12807" width="2.42578125" customWidth="1"/>
+    <col min="12808" max="12808" width="39.85546875" customWidth="1"/>
+    <col min="12809" max="12809" width="12.28515625" customWidth="1"/>
+    <col min="12810" max="12810" width="46.42578125" customWidth="1"/>
+    <col min="13057" max="13057" width="4.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="16.85546875" customWidth="1"/>
+    <col min="13059" max="13059" width="14.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="10.7109375" customWidth="1"/>
+    <col min="13061" max="13062" width="12.85546875" customWidth="1"/>
+    <col min="13063" max="13063" width="2.42578125" customWidth="1"/>
+    <col min="13064" max="13064" width="39.85546875" customWidth="1"/>
+    <col min="13065" max="13065" width="12.28515625" customWidth="1"/>
+    <col min="13066" max="13066" width="46.42578125" customWidth="1"/>
+    <col min="13313" max="13313" width="4.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="16.85546875" customWidth="1"/>
+    <col min="13315" max="13315" width="14.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="10.7109375" customWidth="1"/>
+    <col min="13317" max="13318" width="12.85546875" customWidth="1"/>
+    <col min="13319" max="13319" width="2.42578125" customWidth="1"/>
+    <col min="13320" max="13320" width="39.85546875" customWidth="1"/>
+    <col min="13321" max="13321" width="12.28515625" customWidth="1"/>
+    <col min="13322" max="13322" width="46.42578125" customWidth="1"/>
+    <col min="13569" max="13569" width="4.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="16.85546875" customWidth="1"/>
+    <col min="13571" max="13571" width="14.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="10.7109375" customWidth="1"/>
+    <col min="13573" max="13574" width="12.85546875" customWidth="1"/>
+    <col min="13575" max="13575" width="2.42578125" customWidth="1"/>
+    <col min="13576" max="13576" width="39.85546875" customWidth="1"/>
+    <col min="13577" max="13577" width="12.28515625" customWidth="1"/>
+    <col min="13578" max="13578" width="46.42578125" customWidth="1"/>
+    <col min="13825" max="13825" width="4.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="16.85546875" customWidth="1"/>
+    <col min="13827" max="13827" width="14.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="10.7109375" customWidth="1"/>
+    <col min="13829" max="13830" width="12.85546875" customWidth="1"/>
+    <col min="13831" max="13831" width="2.42578125" customWidth="1"/>
+    <col min="13832" max="13832" width="39.85546875" customWidth="1"/>
+    <col min="13833" max="13833" width="12.28515625" customWidth="1"/>
+    <col min="13834" max="13834" width="46.42578125" customWidth="1"/>
+    <col min="14081" max="14081" width="4.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="16.85546875" customWidth="1"/>
+    <col min="14083" max="14083" width="14.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="10.7109375" customWidth="1"/>
+    <col min="14085" max="14086" width="12.85546875" customWidth="1"/>
+    <col min="14087" max="14087" width="2.42578125" customWidth="1"/>
+    <col min="14088" max="14088" width="39.85546875" customWidth="1"/>
+    <col min="14089" max="14089" width="12.28515625" customWidth="1"/>
+    <col min="14090" max="14090" width="46.42578125" customWidth="1"/>
+    <col min="14337" max="14337" width="4.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="16.85546875" customWidth="1"/>
+    <col min="14339" max="14339" width="14.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="10.7109375" customWidth="1"/>
+    <col min="14341" max="14342" width="12.85546875" customWidth="1"/>
+    <col min="14343" max="14343" width="2.42578125" customWidth="1"/>
+    <col min="14344" max="14344" width="39.85546875" customWidth="1"/>
+    <col min="14345" max="14345" width="12.28515625" customWidth="1"/>
+    <col min="14346" max="14346" width="46.42578125" customWidth="1"/>
+    <col min="14593" max="14593" width="4.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="16.85546875" customWidth="1"/>
+    <col min="14595" max="14595" width="14.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="10.7109375" customWidth="1"/>
+    <col min="14597" max="14598" width="12.85546875" customWidth="1"/>
+    <col min="14599" max="14599" width="2.42578125" customWidth="1"/>
+    <col min="14600" max="14600" width="39.85546875" customWidth="1"/>
+    <col min="14601" max="14601" width="12.28515625" customWidth="1"/>
+    <col min="14602" max="14602" width="46.42578125" customWidth="1"/>
+    <col min="14849" max="14849" width="4.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="16.85546875" customWidth="1"/>
+    <col min="14851" max="14851" width="14.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="10.7109375" customWidth="1"/>
+    <col min="14853" max="14854" width="12.85546875" customWidth="1"/>
+    <col min="14855" max="14855" width="2.42578125" customWidth="1"/>
+    <col min="14856" max="14856" width="39.85546875" customWidth="1"/>
+    <col min="14857" max="14857" width="12.28515625" customWidth="1"/>
+    <col min="14858" max="14858" width="46.42578125" customWidth="1"/>
+    <col min="15105" max="15105" width="4.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="16.85546875" customWidth="1"/>
+    <col min="15107" max="15107" width="14.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="10.7109375" customWidth="1"/>
+    <col min="15109" max="15110" width="12.85546875" customWidth="1"/>
+    <col min="15111" max="15111" width="2.42578125" customWidth="1"/>
+    <col min="15112" max="15112" width="39.85546875" customWidth="1"/>
+    <col min="15113" max="15113" width="12.28515625" customWidth="1"/>
+    <col min="15114" max="15114" width="46.42578125" customWidth="1"/>
+    <col min="15361" max="15361" width="4.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="16.85546875" customWidth="1"/>
+    <col min="15363" max="15363" width="14.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="10.7109375" customWidth="1"/>
+    <col min="15365" max="15366" width="12.85546875" customWidth="1"/>
+    <col min="15367" max="15367" width="2.42578125" customWidth="1"/>
+    <col min="15368" max="15368" width="39.85546875" customWidth="1"/>
+    <col min="15369" max="15369" width="12.28515625" customWidth="1"/>
+    <col min="15370" max="15370" width="46.42578125" customWidth="1"/>
+    <col min="15617" max="15617" width="4.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="16.85546875" customWidth="1"/>
+    <col min="15619" max="15619" width="14.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="10.7109375" customWidth="1"/>
+    <col min="15621" max="15622" width="12.85546875" customWidth="1"/>
+    <col min="15623" max="15623" width="2.42578125" customWidth="1"/>
+    <col min="15624" max="15624" width="39.85546875" customWidth="1"/>
+    <col min="15625" max="15625" width="12.28515625" customWidth="1"/>
+    <col min="15626" max="15626" width="46.42578125" customWidth="1"/>
+    <col min="15873" max="15873" width="4.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="16.85546875" customWidth="1"/>
+    <col min="15875" max="15875" width="14.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="10.7109375" customWidth="1"/>
+    <col min="15877" max="15878" width="12.85546875" customWidth="1"/>
+    <col min="15879" max="15879" width="2.42578125" customWidth="1"/>
+    <col min="15880" max="15880" width="39.85546875" customWidth="1"/>
+    <col min="15881" max="15881" width="12.28515625" customWidth="1"/>
+    <col min="15882" max="15882" width="46.42578125" customWidth="1"/>
+    <col min="16129" max="16129" width="4.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="16.85546875" customWidth="1"/>
+    <col min="16131" max="16131" width="14.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="10.7109375" customWidth="1"/>
+    <col min="16133" max="16134" width="12.85546875" customWidth="1"/>
+    <col min="16135" max="16135" width="2.42578125" customWidth="1"/>
+    <col min="16136" max="16136" width="39.85546875" customWidth="1"/>
+    <col min="16137" max="16137" width="12.28515625" customWidth="1"/>
+    <col min="16138" max="16138" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" ht="15.15"/>
-    <row r="3" ht="15.15" spans="2:10">
-      <c r="B3" s="7" t="s">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="9" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>1592</v>
       </c>
-      <c r="E5" s="16">
-        <v>562.772</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="14">
+        <v>562.77200000000005</v>
+      </c>
+      <c r="F5" s="15">
         <f>E5/D5</f>
-        <v>0.3535</v>
-      </c>
-      <c r="H5" s="18" t="s">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="33" t="str">
         <f>INDEX($B$4:$B$17,MATCH(1088,$D$4:$D$17,0))</f>
         <v>John</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:10">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>8</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>1088</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>396.9024</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <f t="shared" ref="F6:F17" si="0">E6/D6</f>
-        <v>0.3648</v>
-      </c>
-      <c r="H6" s="23" t="s">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="39" t="str">
+      <c r="I6" s="34" t="str">
         <f>INDEX($B$4:$B$17,MATCH(MAX($D$5:$D$17),$D$4:$D$17,0))</f>
         <v>Juno</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>1680</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>752.64</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>0.448</v>
-      </c>
-      <c r="H7" s="18" t="s">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="37" t="str">
+      <c r="I7" s="33" t="str">
         <f>INDEX($B$4:$B$17,MATCH(MIN($C$5:$C$17),$C$4:$C$17,0))</f>
         <v>Jessy</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>9</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>2133</v>
       </c>
-      <c r="E8" s="21">
-        <v>922.7358</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="E8" s="19">
+        <v>922.73580000000004</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>0.4326</v>
-      </c>
-      <c r="H8" s="24" t="s">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="35">
         <f>INDEX($D$4:$D$17,MATCH(MIN($F$5:$F$17),$F$4:$F$17,0))/INDEX($C$4:$C$17,MATCH(MIN($F$5:$F$17),$F$4:$F$17,0))</f>
         <v>119</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:10">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>10</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>1610</v>
       </c>
-      <c r="E9" s="16">
-        <v>579.117</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="14">
+        <v>579.11699999999996</v>
+      </c>
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>0.3597</v>
-      </c>
-      <c r="H9" s="25" t="s">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="43" t="str">
+      <c r="I9" s="36" t="str">
         <f>INDEX($B$4:$B$17,MATCH(LARGE($D$5:$D$17,2),$D$4:$D$17,0))</f>
         <v>Javed</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="2:10">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="B10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>10</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>1540</v>
       </c>
-      <c r="E10" s="21">
-        <v>569.8</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="E10" s="19">
+        <v>569.79999999999995</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="38">
         <f>MATCH(INDEX($D$5:$F$17,MATCH(LARGE($D$5:$D$17,2),$D$5:$D$17,0),3),_xlfn._xlws.SORT($F$5:$F$17,,-1),0)</f>
         <v>3</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="2:10">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>1316</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>427.5684</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.3249</v>
-      </c>
-      <c r="H11" s="27" t="s">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <f>(MAX($D$5:$D$17)/INDEX($C$4:$F$17,MATCH(MAX($D$5:$D$17),$D$4:$D$17,0),1))-(MIN($D$5:$D$17)/INDEX($C$4:$F$17,MATCH(MIN($D$5:$D$17),$D$4:$D$17,0),1))</f>
         <v>179</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>7</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>1799</v>
       </c>
-      <c r="E12" s="21">
-        <v>708.806</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="E12" s="19">
+        <v>708.80600000000004</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:10">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>8</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>1624</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>621.3424</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>0.3826</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="19" t="s">
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>6</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>726</v>
       </c>
-      <c r="E14" s="21">
-        <v>235.8774</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="E14" s="19">
+        <v>235.87739999999999</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
-        <v>0.3249</v>
+        <v>0.32490000000000002</v>
       </c>
       <c r="I14" s="3">
         <f>_xlfn.RANK.EQ(INDEX(Profit_Ratio,MATCH(LARGE(Net_Sales,2),Net_Sales,0)),Profit_Ratio,0)</f>
@@ -3310,64 +2715,64 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:10">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>2277</v>
       </c>
-      <c r="E15" s="16">
-        <v>965.6757</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="E15" s="14">
+        <v>965.67570000000001</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>0.4241</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:10">
+      <c r="B16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>6</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>714</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>220.983</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>0.3095</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <v>9</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <v>2682</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="28">
         <v>1023.183</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <f t="shared" si="0"/>
-        <v>0.3815</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10">
-      <c r="D18" s="32"/>
+        <v>0.38150000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="D18" s="30"/>
       <c r="J18"/>
     </row>
   </sheetData>
@@ -3377,23 +2782,21 @@
     <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3401,18 +2804,18 @@
       </c>
       <c r="B1">
         <f ca="1">RAND()</f>
-        <v>0.898338529659131</v>
+        <v>0.13766157885822905</v>
       </c>
       <c r="C1">
-        <v>0.0173582500647212</v>
+        <v>1.7358250064721199E-2</v>
       </c>
       <c r="E1">
         <f>_xlfn.RANK.EQ(C1,$C$1:$C$20,1)</f>
         <v>1</v>
       </c>
       <c r="G1" t="str" cm="1">
-        <f t="array" ref="G1">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C1,$C$1:$C$20))</f>
-        <v>C 20</v>
+        <f t="array" ref="G1">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C1,$C$1:$C$20,1))</f>
+        <v>C 1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3420,8 +2823,8 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <f ca="1" t="shared" ref="B2:B20" si="0">RAND()</f>
-        <v>0.600686914216032</v>
+        <f t="shared" ref="B2:B20" ca="1" si="0">RAND()</f>
+        <v>0.16567242790157166</v>
       </c>
       <c r="C2">
         <v>0.749699640566722</v>
@@ -3431,8 +2834,8 @@
         <v>17</v>
       </c>
       <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C2,$C$1:$C$20))</f>
-        <v>C 4</v>
+        <f t="array" ref="G2">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C2,$C$1:$C$20,1))</f>
+        <v>C 17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3440,19 +2843,19 @@
         <v>59</v>
       </c>
       <c r="B3">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.424891769283731</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90185927608315641</v>
       </c>
       <c r="C3">
-        <v>0.722069277172703</v>
+        <v>0.72206927717270297</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G3" t="str" cm="1">
-        <f t="array" ref="G3">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C3,$C$1:$C$20))</f>
-        <v>C 7</v>
+        <f t="array" ref="G3">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C3,$C$1:$C$20,1))</f>
+        <v>C 14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3460,19 +2863,19 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.286551810241464</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6394983227800779</v>
       </c>
       <c r="C4">
-        <v>0.829984055215569</v>
+        <v>0.82998405521556895</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G4" t="str" cm="1">
-        <f t="array" ref="G4">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C4,$C$1:$C$20))</f>
-        <v>C 3</v>
+        <f t="array" ref="G4">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C4,$C$1:$C$20,1))</f>
+        <v>C 18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3480,19 +2883,19 @@
         <v>61</v>
       </c>
       <c r="B5">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.41047855516485</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45719874021231888</v>
       </c>
       <c r="C5">
-        <v>0.726829870649399</v>
+        <v>0.72682987064939897</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G5" t="str" cm="1">
-        <f t="array" ref="G5">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C5,$C$1:$C$20))</f>
-        <v>C 6</v>
+        <f t="array" ref="G5">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C5,$C$1:$C$20,1))</f>
+        <v>C 15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3500,19 +2903,19 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.583022445638296</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27274573696965987</v>
       </c>
       <c r="C6">
-        <v>0.147891022031674</v>
+        <v>0.14789102203167401</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G6" t="str" cm="1">
-        <f t="array" ref="G6">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C6,$C$1:$C$20))</f>
-        <v>C 16</v>
+        <f t="array" ref="G6">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C6,$C$1:$C$20,1))</f>
+        <v>C 5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3520,8 +2923,8 @@
         <v>63</v>
       </c>
       <c r="B7">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.887678243091848</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4511633978350496E-2</v>
       </c>
       <c r="C7">
         <v>0.59700777201374</v>
@@ -3531,8 +2934,8 @@
         <v>11</v>
       </c>
       <c r="G7" t="str" cm="1">
-        <f t="array" ref="G7">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C7,$C$1:$C$20))</f>
-        <v>C 10</v>
+        <f t="array" ref="G7">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C7,$C$1:$C$20,1))</f>
+        <v>C 11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3540,19 +2943,19 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.510681116714403</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6050642221954734</v>
       </c>
       <c r="C8">
-        <v>0.24873120679827</v>
+        <v>0.24873120679826999</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G8" t="str" cm="1">
-        <f t="array" ref="G8">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C8,$C$1:$C$20))</f>
-        <v>C 14</v>
+        <f t="array" ref="G8">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C8,$C$1:$C$20,1))</f>
+        <v>C 7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3560,19 +2963,19 @@
         <v>65</v>
       </c>
       <c r="B9">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.483427536814673</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22424512903503335</v>
       </c>
       <c r="C9">
-        <v>0.706384065846988</v>
+        <v>0.70638406584698799</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G9" t="str" cm="1">
-        <f t="array" ref="G9">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C9,$C$1:$C$20))</f>
-        <v>C 8</v>
+        <f t="array" ref="G9">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C9,$C$1:$C$20,1))</f>
+        <v>C 13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3580,19 +2983,19 @@
         <v>66</v>
       </c>
       <c r="B10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.94582361812806</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49369786644760816</v>
       </c>
       <c r="C10">
-        <v>0.145601513465756</v>
+        <v>0.14560151346575601</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G10" t="str" cm="1">
-        <f t="array" ref="G10">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C10,$C$1:$C$20))</f>
-        <v>C 17</v>
+        <f t="array" ref="G10">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C10,$C$1:$C$20,1))</f>
+        <v>C 4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3600,19 +3003,19 @@
         <v>67</v>
       </c>
       <c r="B11">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.987452695965463</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37571636729177715</v>
       </c>
       <c r="C11">
-        <v>0.978985056930764</v>
+        <v>0.97898505693076399</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G11" t="str" cm="1">
-        <f t="array" ref="G11">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C11,$C$1:$C$20))</f>
-        <v>C 1</v>
+        <f t="array" ref="G11">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C11,$C$1:$C$20,1))</f>
+        <v>C 20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3620,19 +3023,19 @@
         <v>68</v>
       </c>
       <c r="B12">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.377565961522855</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92314358012273168</v>
       </c>
       <c r="C12">
-        <v>0.747231993135177</v>
+        <v>0.74723199313517696</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G12" t="str" cm="1">
-        <f t="array" ref="G12">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C12,$C$1:$C$20))</f>
-        <v>C 5</v>
+        <f t="array" ref="G12">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C12,$C$1:$C$20,1))</f>
+        <v>C 16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3640,8 +3043,8 @@
         <v>69</v>
       </c>
       <c r="B13">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.392635440305516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23908267646371772</v>
       </c>
       <c r="C13">
         <v>0.68398882994498</v>
@@ -3651,8 +3054,8 @@
         <v>12</v>
       </c>
       <c r="G13" t="str" cm="1">
-        <f t="array" ref="G13">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C13,$C$1:$C$20))</f>
-        <v>C 9</v>
+        <f t="array" ref="G13">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C13,$C$1:$C$20,1))</f>
+        <v>C 12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3660,19 +3063,19 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.829222647082932</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24637143036946485</v>
       </c>
       <c r="C14">
-        <v>0.488228371712525</v>
+        <v>0.48822837171252498</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G14" t="str" cm="1">
-        <f t="array" ref="G14">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C14,$C$1:$C$20))</f>
-        <v>C 12</v>
+        <f t="array" ref="G14">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C14,$C$1:$C$20,1))</f>
+        <v>C 9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3680,8 +3083,8 @@
         <v>71</v>
       </c>
       <c r="B15">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.0215100725586477</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54624830774356226</v>
       </c>
       <c r="C15">
         <v>0.158187897413059</v>
@@ -3691,8 +3094,8 @@
         <v>6</v>
       </c>
       <c r="G15" t="str" cm="1">
-        <f t="array" ref="G15">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C15,$C$1:$C$20))</f>
-        <v>C 15</v>
+        <f t="array" ref="G15">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C15,$C$1:$C$20,1))</f>
+        <v>C 6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3700,19 +3103,19 @@
         <v>72</v>
       </c>
       <c r="B16">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.895903487498525</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56883099539432747</v>
       </c>
       <c r="C16">
-        <v>0.0423577910523256</v>
+        <v>4.2357791052325601E-2</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G16" t="str" cm="1">
-        <f t="array" ref="G16">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C16,$C$1:$C$20))</f>
-        <v>C 19</v>
+        <f t="array" ref="G16">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C16,$C$1:$C$20,1))</f>
+        <v>C 2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3720,19 +3123,19 @@
         <v>73</v>
       </c>
       <c r="B17">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.17708972792666</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26858980968462121</v>
       </c>
       <c r="C17">
-        <v>0.104995986630994</v>
+        <v>0.10499598663099401</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G17" t="str" cm="1">
-        <f t="array" ref="G17">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C17,$C$1:$C$20))</f>
-        <v>C 18</v>
+        <f t="array" ref="G17">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C17,$C$1:$C$20,1))</f>
+        <v>C 3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3740,19 +3143,19 @@
         <v>74</v>
       </c>
       <c r="B18">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.0233543718229832</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32536461729198407</v>
       </c>
       <c r="C18">
-        <v>0.891969755722059</v>
+        <v>0.89196975572205905</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G18" t="str" cm="1">
-        <f t="array" ref="G18">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C18,$C$1:$C$20))</f>
-        <v>C 2</v>
+        <f t="array" ref="G18">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C18,$C$1:$C$20,1))</f>
+        <v>C 19</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3760,19 +3163,19 @@
         <v>75</v>
       </c>
       <c r="B19">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.722327968719263</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90918521089128723</v>
       </c>
       <c r="C19">
-        <v>0.537082930908272</v>
+        <v>0.53708293090827197</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G19" t="str" cm="1">
-        <f t="array" ref="G19">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C19,$C$1:$C$20))</f>
-        <v>C 11</v>
+        <f t="array" ref="G19">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C19,$C$1:$C$20,1))</f>
+        <v>C 10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3780,23 +3183,22 @@
         <v>76</v>
       </c>
       <c r="B20">
-        <f ca="1" t="shared" si="0"/>
-        <v>0.637638556178295</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37787346536833988</v>
       </c>
       <c r="C20">
-        <v>0.375468364772191</v>
+        <v>0.37546836477219098</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G20" t="str" cm="1">
-        <f t="array" ref="G20">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C20,$C$1:$C$20))</f>
-        <v>C 13</v>
+        <f t="array" ref="G20">INDEX($A$1:$A$20,_xlfn.RANK.EQ($C20,$C$1:$C$20,1))</f>
+        <v>C 8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>